--- a/Conception Du Projet/data.xlsx
+++ b/Conception Du Projet/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stage Topnet\Topnet-B2C-Stage-\Conception Du Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Topnet-B2C-Stage-\Conception Du Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F698F764-5C12-43F0-888D-C7D5CA732B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18027889-E980-49CF-B27E-48D51262A542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2905EF77-929B-4D71-BC2B-70257BADC6D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{2905EF77-929B-4D71-BC2B-70257BADC6D2}"/>
   </bookViews>
   <sheets>
     <sheet name="AxesWeight" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="46">
   <si>
     <t>poids_offre</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>score_totale</t>
+  </si>
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>Mahmoud</t>
   </si>
 </sst>
 </file>
@@ -567,21 +573,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400534CA-BCFD-410E-9A74-5F528DB25B16}">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -682,7 +688,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -766,6 +772,178 @@
       </c>
       <c r="AB2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -782,12 +960,12 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -825,7 +1003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -876,23 +1054,23 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" customWidth="1"/>
-    <col min="9" max="9" width="36.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
-    <col min="11" max="11" width="20.88671875" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -909,7 +1087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -927,304 +1105,304 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="6:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F101" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -1233,408 +1411,408 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E106" s="2"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E107" s="2"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E108" s="2"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E109" s="2"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E110" s="2"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E111" s="2"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E112" s="2"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E113" s="2"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E114" s="2"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E115" s="2"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E116" s="2"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E117" s="2"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E118" s="2"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E119" s="2"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E120" s="2"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E121" s="2"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E122" s="2"/>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E123" s="2"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E124" s="2"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E125" s="2"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E126" s="2"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E127" s="2"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E128" s="2"/>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E129" s="2"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E130" s="2"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E131" s="2"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="132" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E132" s="2"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="133" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E133" s="2"/>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E134" s="2"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E135" s="2"/>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="136" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E136" s="2"/>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="137" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E137" s="2"/>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="138" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E138" s="2"/>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E139" s="2"/>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="140" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E140" s="2"/>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="141" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E141" s="2"/>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E142" s="2"/>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E143" s="2"/>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E144" s="2"/>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E145" s="2"/>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E146" s="2"/>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="147" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E147" s="2"/>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="148" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E148" s="2"/>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="149" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E149" s="2"/>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E150" s="2"/>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E151" s="2"/>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="152" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E152" s="2"/>
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E153" s="2"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="154" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E154" s="2"/>
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E155" s="2"/>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="156" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E156" s="2"/>
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E157" s="2"/>
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E158" s="2"/>
       <c r="F158" s="1"/>
     </row>
-    <row r="159" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="159" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E159" s="2"/>
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="160" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E160" s="2"/>
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="161" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E161" s="2"/>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="162" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E162" s="2"/>
       <c r="F162" s="1"/>
     </row>
-    <row r="163" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E163" s="2"/>
       <c r="F163" s="1"/>
     </row>
-    <row r="164" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E164" s="2"/>
       <c r="F164" s="1"/>
     </row>
-    <row r="165" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="165" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E165" s="2"/>
       <c r="F165" s="1"/>
     </row>
-    <row r="166" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="166" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E166" s="2"/>
       <c r="F166" s="1"/>
     </row>
-    <row r="167" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="167" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E167" s="2"/>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="168" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E168" s="2"/>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="169" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E169" s="2"/>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="170" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E170" s="2"/>
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="171" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E171" s="2"/>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E172" s="2"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="173" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E173" s="2"/>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="174" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E174" s="2"/>
       <c r="F174" s="1"/>
     </row>
-    <row r="175" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="175" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E175" s="2"/>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="176" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E176" s="2"/>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="177" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E177" s="2"/>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="178" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E178" s="2"/>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="179" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E179" s="2"/>
       <c r="F179" s="1"/>
     </row>
-    <row r="180" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="180" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E180" s="2"/>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="181" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E181" s="2"/>
       <c r="F181" s="1"/>
     </row>
-    <row r="182" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="182" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E182" s="2"/>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E183" s="2"/>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E184" s="2"/>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="185" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E185" s="2"/>
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="186" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E186" s="2"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="187" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E187" s="2"/>
       <c r="F187" s="1"/>
     </row>
-    <row r="188" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="188" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E188" s="2"/>
       <c r="F188" s="1"/>
     </row>
-    <row r="189" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="189" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E189" s="2"/>
       <c r="F189" s="1"/>
     </row>
-    <row r="190" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="190" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E190" s="2"/>
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="191" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E191" s="2"/>
       <c r="F191" s="1"/>
     </row>
-    <row r="192" spans="5:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="192" spans="5:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E192" s="2"/>
       <c r="F192" s="1"/>
     </row>
-    <row r="193" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E193" s="2"/>
       <c r="F193" s="1"/>
     </row>
-    <row r="194" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E194" s="2"/>
       <c r="F194" s="1"/>
     </row>
-    <row r="195" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E195" s="2"/>
       <c r="F195" s="1"/>
     </row>
-    <row r="196" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E196" s="2"/>
       <c r="F196" s="1"/>
     </row>
-    <row r="197" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E197" s="2"/>
       <c r="F197" s="1"/>
     </row>
-    <row r="198" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E198" s="2"/>
       <c r="F198" s="1"/>
     </row>
-    <row r="199" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E199" s="2"/>
       <c r="F199" s="1"/>
     </row>
-    <row r="200" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E200" s="2"/>
       <c r="F200" s="1"/>
     </row>
-    <row r="201" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E201" s="2"/>
       <c r="F201" s="1"/>
     </row>
-    <row r="202" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E202" s="2"/>
       <c r="F202" s="1"/>
     </row>
-    <row r="203" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E203" s="2"/>
       <c r="F203" s="1"/>
     </row>
-    <row r="204" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E204" s="2"/>
       <c r="F204" s="1"/>
     </row>
-    <row r="205" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E205" s="2"/>
       <c r="F205" s="1"/>
     </row>
-    <row r="206" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -1643,408 +1821,408 @@
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
     </row>
-    <row r="207" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D208" s="2"/>
       <c r="E208" s="4"/>
     </row>
-    <row r="209" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D209" s="2"/>
       <c r="E209" s="4"/>
     </row>
-    <row r="210" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="210" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D210" s="2"/>
       <c r="E210" s="4"/>
     </row>
-    <row r="211" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D211" s="2"/>
       <c r="E211" s="4"/>
     </row>
-    <row r="212" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D212" s="2"/>
       <c r="E212" s="4"/>
     </row>
-    <row r="213" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="213" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D213" s="2"/>
       <c r="E213" s="4"/>
     </row>
-    <row r="214" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="214" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D214" s="2"/>
       <c r="E214" s="4"/>
     </row>
-    <row r="215" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="215" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D215" s="2"/>
       <c r="E215" s="4"/>
     </row>
-    <row r="216" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D216" s="2"/>
       <c r="E216" s="4"/>
     </row>
-    <row r="217" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="217" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D217" s="2"/>
       <c r="E217" s="4"/>
     </row>
-    <row r="218" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="218" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D218" s="2"/>
       <c r="E218" s="4"/>
     </row>
-    <row r="219" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="219" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D219" s="2"/>
       <c r="E219" s="4"/>
     </row>
-    <row r="220" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D220" s="2"/>
       <c r="E220" s="4"/>
     </row>
-    <row r="221" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D221" s="2"/>
       <c r="E221" s="4"/>
     </row>
-    <row r="222" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="222" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D222" s="2"/>
       <c r="E222" s="4"/>
     </row>
-    <row r="223" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="223" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D223" s="2"/>
       <c r="E223" s="4"/>
     </row>
-    <row r="224" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="224" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D224" s="2"/>
       <c r="E224" s="4"/>
     </row>
-    <row r="225" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D225" s="2"/>
       <c r="E225" s="4"/>
     </row>
-    <row r="226" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="226" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D226" s="2"/>
       <c r="E226" s="4"/>
     </row>
-    <row r="227" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="227" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D227" s="2"/>
       <c r="E227" s="4"/>
     </row>
-    <row r="228" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D228" s="2"/>
       <c r="E228" s="4"/>
     </row>
-    <row r="229" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D229" s="2"/>
       <c r="E229" s="4"/>
     </row>
-    <row r="230" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="230" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D230" s="2"/>
       <c r="E230" s="4"/>
     </row>
-    <row r="231" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D231" s="2"/>
       <c r="E231" s="4"/>
     </row>
-    <row r="232" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="232" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D232" s="2"/>
       <c r="E232" s="4"/>
     </row>
-    <row r="233" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="233" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D233" s="2"/>
       <c r="E233" s="4"/>
     </row>
-    <row r="234" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D234" s="2"/>
       <c r="E234" s="4"/>
     </row>
-    <row r="235" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="235" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D235" s="2"/>
       <c r="E235" s="4"/>
     </row>
-    <row r="236" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D236" s="2"/>
       <c r="E236" s="4"/>
     </row>
-    <row r="237" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D237" s="2"/>
       <c r="E237" s="4"/>
     </row>
-    <row r="238" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D238" s="2"/>
       <c r="E238" s="4"/>
     </row>
-    <row r="239" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="239" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D239" s="2"/>
       <c r="E239" s="4"/>
     </row>
-    <row r="240" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="240" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D240" s="2"/>
       <c r="E240" s="4"/>
     </row>
-    <row r="241" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D241" s="2"/>
       <c r="E241" s="4"/>
     </row>
-    <row r="242" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D242" s="2"/>
       <c r="E242" s="4"/>
     </row>
-    <row r="243" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="243" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D243" s="2"/>
       <c r="E243" s="4"/>
     </row>
-    <row r="244" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="244" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D244" s="2"/>
       <c r="E244" s="4"/>
     </row>
-    <row r="245" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D245" s="2"/>
       <c r="E245" s="4"/>
     </row>
-    <row r="246" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="246" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D246" s="2"/>
       <c r="E246" s="4"/>
     </row>
-    <row r="247" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="247" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D247" s="2"/>
       <c r="E247" s="4"/>
     </row>
-    <row r="248" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D248" s="2"/>
       <c r="E248" s="4"/>
     </row>
-    <row r="249" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D249" s="2"/>
       <c r="E249" s="4"/>
     </row>
-    <row r="250" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="250" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D250" s="2"/>
       <c r="E250" s="4"/>
     </row>
-    <row r="251" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="251" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D251" s="2"/>
       <c r="E251" s="4"/>
     </row>
-    <row r="252" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D252" s="2"/>
       <c r="E252" s="4"/>
     </row>
-    <row r="253" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D253" s="2"/>
       <c r="E253" s="4"/>
     </row>
-    <row r="254" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D254" s="2"/>
       <c r="E254" s="4"/>
     </row>
-    <row r="255" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="255" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D255" s="2"/>
       <c r="E255" s="4"/>
     </row>
-    <row r="256" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="256" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D256" s="2"/>
       <c r="E256" s="4"/>
     </row>
-    <row r="257" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D257" s="2"/>
       <c r="E257" s="4"/>
     </row>
-    <row r="258" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="258" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D258" s="2"/>
       <c r="E258" s="4"/>
     </row>
-    <row r="259" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="259" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D259" s="2"/>
       <c r="E259" s="4"/>
     </row>
-    <row r="260" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D260" s="2"/>
       <c r="E260" s="4"/>
     </row>
-    <row r="261" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D261" s="2"/>
       <c r="E261" s="4"/>
     </row>
-    <row r="262" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="262" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D262" s="2"/>
       <c r="E262" s="4"/>
     </row>
-    <row r="263" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="263" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D263" s="2"/>
       <c r="E263" s="4"/>
     </row>
-    <row r="264" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D264" s="2"/>
       <c r="E264" s="4"/>
     </row>
-    <row r="265" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="265" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D265" s="2"/>
       <c r="E265" s="4"/>
     </row>
-    <row r="266" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="266" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D266" s="2"/>
       <c r="E266" s="4"/>
     </row>
-    <row r="267" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D267" s="2"/>
       <c r="E267" s="4"/>
     </row>
-    <row r="268" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="268" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D268" s="2"/>
       <c r="E268" s="4"/>
     </row>
-    <row r="269" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="269" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D269" s="2"/>
       <c r="E269" s="4"/>
     </row>
-    <row r="270" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="270" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D270" s="2"/>
       <c r="E270" s="4"/>
     </row>
-    <row r="271" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D271" s="2"/>
       <c r="E271" s="4"/>
     </row>
-    <row r="272" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="272" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D272" s="2"/>
       <c r="E272" s="4"/>
     </row>
-    <row r="273" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D273" s="2"/>
       <c r="E273" s="4"/>
     </row>
-    <row r="274" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D274" s="2"/>
       <c r="E274" s="4"/>
     </row>
-    <row r="275" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D275" s="2"/>
       <c r="E275" s="4"/>
     </row>
-    <row r="276" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D276" s="2"/>
       <c r="E276" s="4"/>
     </row>
-    <row r="277" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D277" s="2"/>
       <c r="E277" s="4"/>
     </row>
-    <row r="278" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D278" s="2"/>
       <c r="E278" s="4"/>
     </row>
-    <row r="279" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D279" s="2"/>
       <c r="E279" s="4"/>
     </row>
-    <row r="280" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D280" s="2"/>
       <c r="E280" s="4"/>
     </row>
-    <row r="281" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D281" s="2"/>
       <c r="E281" s="4"/>
     </row>
-    <row r="282" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D282" s="2"/>
       <c r="E282" s="4"/>
     </row>
-    <row r="283" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D283" s="2"/>
       <c r="E283" s="4"/>
     </row>
-    <row r="284" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D284" s="2"/>
       <c r="E284" s="4"/>
     </row>
-    <row r="285" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="285" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D285" s="2"/>
       <c r="E285" s="4"/>
     </row>
-    <row r="286" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="286" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D286" s="2"/>
       <c r="E286" s="4"/>
     </row>
-    <row r="287" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="287" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D287" s="2"/>
       <c r="E287" s="4"/>
     </row>
-    <row r="288" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D288" s="2"/>
       <c r="E288" s="4"/>
     </row>
-    <row r="289" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D289" s="2"/>
       <c r="E289" s="4"/>
     </row>
-    <row r="290" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="290" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D290" s="2"/>
       <c r="E290" s="4"/>
     </row>
-    <row r="291" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="291" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D291" s="2"/>
       <c r="E291" s="4"/>
     </row>
-    <row r="292" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D292" s="2"/>
       <c r="E292" s="4"/>
     </row>
-    <row r="293" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="293" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D293" s="2"/>
       <c r="E293" s="4"/>
     </row>
-    <row r="294" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="294" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D294" s="2"/>
       <c r="E294" s="4"/>
     </row>
-    <row r="295" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D295" s="2"/>
       <c r="E295" s="4"/>
     </row>
-    <row r="296" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D296" s="2"/>
       <c r="E296" s="4"/>
     </row>
-    <row r="297" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D297" s="2"/>
       <c r="E297" s="4"/>
     </row>
-    <row r="298" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="298" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D298" s="2"/>
       <c r="E298" s="4"/>
     </row>
-    <row r="299" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="299" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D299" s="2"/>
       <c r="E299" s="4"/>
     </row>
-    <row r="300" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D300" s="2"/>
       <c r="E300" s="4"/>
     </row>
-    <row r="301" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="301" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D301" s="2"/>
       <c r="E301" s="4"/>
     </row>
-    <row r="302" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D302" s="2"/>
       <c r="E302" s="4"/>
     </row>
-    <row r="303" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="303" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D303" s="2"/>
       <c r="E303" s="4"/>
     </row>
-    <row r="304" spans="4:5" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D304" s="2"/>
       <c r="E304" s="4"/>
     </row>
-    <row r="305" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D305" s="2"/>
       <c r="E305" s="4"/>
     </row>
-    <row r="306" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D306" s="2"/>
       <c r="E306" s="4"/>
     </row>
-    <row r="307" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D307" s="2"/>
       <c r="E307" s="4"/>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -2054,713 +2232,713 @@
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
     </row>
-    <row r="309" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E309" s="5"/>
     </row>
-    <row r="310" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D310" s="1"/>
     </row>
-    <row r="311" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E311" s="2"/>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
     </row>
-    <row r="312" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E312" s="2"/>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
     </row>
-    <row r="313" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E313" s="2"/>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
     </row>
-    <row r="314" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E314" s="2"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
     </row>
-    <row r="315" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E315" s="2"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
     </row>
-    <row r="316" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E316" s="2"/>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
     </row>
-    <row r="317" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E317" s="2"/>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
     </row>
-    <row r="318" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E318" s="2"/>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
     </row>
-    <row r="319" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E319" s="2"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
     </row>
-    <row r="320" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E320" s="2"/>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
     </row>
-    <row r="321" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="321" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E321" s="2"/>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
     </row>
-    <row r="322" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="322" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E322" s="2"/>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
     </row>
-    <row r="323" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="323" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E323" s="2"/>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
     </row>
-    <row r="324" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="324" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E324" s="2"/>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
     </row>
-    <row r="325" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="325" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E325" s="2"/>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
     </row>
-    <row r="326" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="326" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E326" s="2"/>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
     </row>
-    <row r="327" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="327" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E327" s="2"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
     </row>
-    <row r="328" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="328" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E328" s="2"/>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
     </row>
-    <row r="329" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="329" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E329" s="2"/>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
     </row>
-    <row r="330" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="330" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E330" s="2"/>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
     </row>
-    <row r="331" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="331" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E331" s="2"/>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
     </row>
-    <row r="332" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="332" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E332" s="2"/>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
     </row>
-    <row r="333" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="333" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E333" s="2"/>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
     </row>
-    <row r="334" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="334" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E334" s="2"/>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
     </row>
-    <row r="335" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="335" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E335" s="2"/>
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
     </row>
-    <row r="336" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="336" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E336" s="2"/>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
     </row>
-    <row r="337" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="337" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E337" s="2"/>
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
     </row>
-    <row r="338" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="338" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E338" s="2"/>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
     </row>
-    <row r="339" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="339" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E339" s="2"/>
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
     </row>
-    <row r="340" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="340" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E340" s="2"/>
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
     </row>
-    <row r="341" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="341" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E341" s="2"/>
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
     </row>
-    <row r="342" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="342" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E342" s="2"/>
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
     </row>
-    <row r="343" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="343" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E343" s="2"/>
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
     </row>
-    <row r="344" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="344" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E344" s="2"/>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
     </row>
-    <row r="345" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="345" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E345" s="2"/>
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
     </row>
-    <row r="346" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="346" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E346" s="2"/>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
     </row>
-    <row r="347" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="347" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E347" s="2"/>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
     </row>
-    <row r="348" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="348" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E348" s="2"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
     </row>
-    <row r="349" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="349" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E349" s="2"/>
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
     </row>
-    <row r="350" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="350" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E350" s="2"/>
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
     </row>
-    <row r="351" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="351" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E351" s="2"/>
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
     </row>
-    <row r="352" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="352" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E352" s="2"/>
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
     </row>
-    <row r="353" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="353" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E353" s="2"/>
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
     </row>
-    <row r="354" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="354" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E354" s="2"/>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
     </row>
-    <row r="355" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="355" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E355" s="2"/>
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
     </row>
-    <row r="356" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="356" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E356" s="2"/>
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
     </row>
-    <row r="357" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="357" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E357" s="2"/>
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
     </row>
-    <row r="358" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="358" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E358" s="2"/>
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
     </row>
-    <row r="359" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="359" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E359" s="2"/>
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
     </row>
-    <row r="360" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="360" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E360" s="2"/>
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
     </row>
-    <row r="361" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="361" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E361" s="2"/>
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
     </row>
-    <row r="362" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="362" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E362" s="2"/>
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
     </row>
-    <row r="363" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="363" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E363" s="2"/>
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
     </row>
-    <row r="364" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="364" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E364" s="2"/>
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
     </row>
-    <row r="365" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="365" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E365" s="2"/>
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
     </row>
-    <row r="366" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="366" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E366" s="2"/>
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
     </row>
-    <row r="367" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="367" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E367" s="2"/>
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
     </row>
-    <row r="368" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="368" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E368" s="2"/>
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
       <c r="I368" s="1"/>
     </row>
-    <row r="369" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="369" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E369" s="2"/>
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
       <c r="I369" s="1"/>
     </row>
-    <row r="370" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="370" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E370" s="2"/>
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
       <c r="I370" s="1"/>
     </row>
-    <row r="371" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="371" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E371" s="2"/>
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
       <c r="I371" s="1"/>
     </row>
-    <row r="372" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="372" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E372" s="2"/>
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
       <c r="I372" s="1"/>
     </row>
-    <row r="373" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="373" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E373" s="2"/>
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
       <c r="I373" s="1"/>
     </row>
-    <row r="374" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="374" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E374" s="2"/>
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
       <c r="I374" s="1"/>
     </row>
-    <row r="375" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="375" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E375" s="2"/>
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
       <c r="I375" s="1"/>
     </row>
-    <row r="376" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="376" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E376" s="2"/>
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
     </row>
-    <row r="377" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="377" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E377" s="2"/>
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
     </row>
-    <row r="378" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="378" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E378" s="2"/>
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
     </row>
-    <row r="379" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="379" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E379" s="2"/>
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
     </row>
-    <row r="380" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="380" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E380" s="2"/>
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
     </row>
-    <row r="381" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="381" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E381" s="2"/>
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
     </row>
-    <row r="382" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="382" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E382" s="2"/>
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
     </row>
-    <row r="383" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="383" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E383" s="2"/>
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
     </row>
-    <row r="384" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="384" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E384" s="2"/>
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
     </row>
-    <row r="385" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="385" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E385" s="2"/>
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
     </row>
-    <row r="386" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="386" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E386" s="2"/>
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
     </row>
-    <row r="387" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="387" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E387" s="2"/>
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
     </row>
-    <row r="388" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="388" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E388" s="2"/>
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
     </row>
-    <row r="389" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="389" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E389" s="2"/>
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
     </row>
-    <row r="390" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="390" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E390" s="2"/>
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
       <c r="I390" s="1"/>
     </row>
-    <row r="391" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="391" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E391" s="2"/>
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
       <c r="I391" s="1"/>
     </row>
-    <row r="392" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="392" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E392" s="2"/>
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
       <c r="I392" s="1"/>
     </row>
-    <row r="393" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="393" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E393" s="2"/>
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
       <c r="I393" s="1"/>
     </row>
-    <row r="394" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="394" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E394" s="2"/>
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
       <c r="I394" s="1"/>
     </row>
-    <row r="395" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="395" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E395" s="2"/>
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
       <c r="I395" s="1"/>
     </row>
-    <row r="396" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="396" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E396" s="2"/>
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
       <c r="I396" s="1"/>
     </row>
-    <row r="397" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="397" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E397" s="2"/>
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
       <c r="I397" s="1"/>
     </row>
-    <row r="398" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="398" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E398" s="2"/>
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
       <c r="I398" s="1"/>
     </row>
-    <row r="399" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="399" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E399" s="2"/>
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
       <c r="I399" s="1"/>
     </row>
-    <row r="400" spans="5:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="400" spans="5:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E400" s="2"/>
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
       <c r="I400" s="1"/>
     </row>
-    <row r="401" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E401" s="2"/>
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
       <c r="I401" s="1"/>
     </row>
-    <row r="402" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E402" s="2"/>
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
     </row>
-    <row r="403" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E403" s="2"/>
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
       <c r="I403" s="1"/>
     </row>
-    <row r="404" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E404" s="2"/>
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
       <c r="I404" s="1"/>
     </row>
-    <row r="405" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E405" s="2"/>
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
       <c r="I405" s="1"/>
     </row>
-    <row r="406" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E406" s="2"/>
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
       <c r="I406" s="1"/>
     </row>
-    <row r="407" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E407" s="2"/>
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
       <c r="I407" s="1"/>
     </row>
-    <row r="408" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E408" s="2"/>
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
     </row>
-    <row r="409" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E409" s="2"/>
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
     </row>
-    <row r="410" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E410" s="2"/>
       <c r="F410" s="1"/>
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="7"/>
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
@@ -2770,7 +2948,7 @@
       <c r="G411" s="7"/>
       <c r="H411" s="7"/>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="7"/>
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
@@ -2780,7 +2958,7 @@
       <c r="G412" s="7"/>
       <c r="H412" s="7"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="7"/>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -2790,724 +2968,724 @@
       <c r="G413" s="7"/>
       <c r="H413" s="7"/>
     </row>
-    <row r="415" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="2"/>
     </row>
-    <row r="416" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="2"/>
     </row>
-    <row r="417" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="2"/>
     </row>
-    <row r="418" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="2"/>
     </row>
-    <row r="419" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="2"/>
     </row>
-    <row r="420" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="2"/>
     </row>
-    <row r="421" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="2"/>
     </row>
-    <row r="422" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="2"/>
     </row>
-    <row r="423" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="2"/>
     </row>
-    <row r="424" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="2"/>
     </row>
-    <row r="425" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="426" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="2"/>
       <c r="H426" s="1"/>
       <c r="I426" s="4"/>
       <c r="J426" s="1"/>
     </row>
-    <row r="427" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="2"/>
       <c r="H427" s="1"/>
       <c r="I427" s="4"/>
       <c r="J427" s="1"/>
     </row>
-    <row r="428" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="2"/>
       <c r="H428" s="1"/>
       <c r="I428" s="4"/>
       <c r="J428" s="1"/>
     </row>
-    <row r="429" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="2"/>
       <c r="H429" s="1"/>
       <c r="I429" s="4"/>
       <c r="J429" s="1"/>
     </row>
-    <row r="430" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="2"/>
       <c r="H430" s="1"/>
       <c r="I430" s="4"/>
       <c r="J430" s="1"/>
     </row>
-    <row r="431" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="2"/>
       <c r="H431" s="1"/>
       <c r="I431" s="4"/>
       <c r="J431" s="1"/>
     </row>
-    <row r="432" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="2"/>
       <c r="H432" s="1"/>
       <c r="I432" s="4"/>
       <c r="J432" s="1"/>
     </row>
-    <row r="433" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="2"/>
       <c r="H433" s="1"/>
       <c r="I433" s="4"/>
       <c r="J433" s="1"/>
     </row>
-    <row r="434" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="2"/>
       <c r="H434" s="1"/>
       <c r="I434" s="4"/>
       <c r="J434" s="1"/>
     </row>
-    <row r="435" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="2"/>
       <c r="H435" s="1"/>
       <c r="I435" s="4"/>
       <c r="J435" s="1"/>
     </row>
-    <row r="436" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="2"/>
       <c r="H436" s="1"/>
       <c r="I436" s="4"/>
       <c r="J436" s="1"/>
     </row>
-    <row r="437" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="2"/>
       <c r="H437" s="1"/>
       <c r="I437" s="4"/>
       <c r="J437" s="1"/>
     </row>
-    <row r="438" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="2"/>
       <c r="H438" s="1"/>
       <c r="I438" s="4"/>
       <c r="J438" s="1"/>
     </row>
-    <row r="439" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="2"/>
       <c r="H439" s="1"/>
       <c r="I439" s="4"/>
       <c r="J439" s="1"/>
     </row>
-    <row r="440" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="2"/>
       <c r="H440" s="1"/>
       <c r="I440" s="4"/>
       <c r="J440" s="1"/>
     </row>
-    <row r="441" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
       <c r="H441" s="1"/>
       <c r="I441" s="4"/>
       <c r="J441" s="1"/>
     </row>
-    <row r="442" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="2"/>
       <c r="H442" s="1"/>
       <c r="I442" s="4"/>
       <c r="J442" s="1"/>
     </row>
-    <row r="443" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="2"/>
       <c r="H443" s="1"/>
       <c r="I443" s="4"/>
       <c r="J443" s="1"/>
     </row>
-    <row r="444" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="2"/>
       <c r="H444" s="1"/>
       <c r="I444" s="4"/>
       <c r="J444" s="1"/>
     </row>
-    <row r="445" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="2"/>
       <c r="H445" s="1"/>
       <c r="I445" s="4"/>
       <c r="J445" s="1"/>
     </row>
-    <row r="446" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="2"/>
       <c r="H446" s="1"/>
       <c r="I446" s="4"/>
       <c r="J446" s="1"/>
     </row>
-    <row r="447" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="2"/>
       <c r="H447" s="1"/>
       <c r="I447" s="4"/>
       <c r="J447" s="1"/>
     </row>
-    <row r="448" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="2"/>
       <c r="H448" s="1"/>
       <c r="I448" s="4"/>
       <c r="J448" s="1"/>
     </row>
-    <row r="449" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="2"/>
       <c r="H449" s="1"/>
       <c r="I449" s="4"/>
       <c r="J449" s="1"/>
     </row>
-    <row r="450" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="2"/>
       <c r="H450" s="1"/>
       <c r="I450" s="4"/>
       <c r="J450" s="1"/>
     </row>
-    <row r="451" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="2"/>
       <c r="H451" s="1"/>
       <c r="I451" s="4"/>
       <c r="J451" s="1"/>
     </row>
-    <row r="452" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="2"/>
       <c r="H452" s="1"/>
       <c r="I452" s="4"/>
       <c r="J452" s="1"/>
     </row>
-    <row r="453" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="2"/>
       <c r="H453" s="1"/>
       <c r="I453" s="4"/>
       <c r="J453" s="1"/>
     </row>
-    <row r="454" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="2"/>
       <c r="H454" s="1"/>
       <c r="I454" s="4"/>
       <c r="J454" s="1"/>
     </row>
-    <row r="455" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="2"/>
       <c r="H455" s="1"/>
       <c r="I455" s="4"/>
       <c r="J455" s="1"/>
     </row>
-    <row r="456" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="2"/>
       <c r="H456" s="1"/>
       <c r="I456" s="4"/>
       <c r="J456" s="1"/>
     </row>
-    <row r="457" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
       <c r="H457" s="1"/>
       <c r="I457" s="4"/>
       <c r="J457" s="1"/>
     </row>
-    <row r="458" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="2"/>
       <c r="H458" s="1"/>
       <c r="I458" s="4"/>
       <c r="J458" s="1"/>
     </row>
-    <row r="459" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="2"/>
       <c r="H459" s="1"/>
       <c r="I459" s="4"/>
       <c r="J459" s="1"/>
     </row>
-    <row r="460" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="2"/>
       <c r="H460" s="1"/>
       <c r="I460" s="4"/>
       <c r="J460" s="1"/>
     </row>
-    <row r="461" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="2"/>
       <c r="H461" s="1"/>
       <c r="I461" s="4"/>
       <c r="J461" s="1"/>
     </row>
-    <row r="462" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="2"/>
       <c r="H462" s="1"/>
       <c r="I462" s="4"/>
       <c r="J462" s="1"/>
     </row>
-    <row r="463" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="2"/>
       <c r="H463" s="1"/>
       <c r="I463" s="4"/>
       <c r="J463" s="1"/>
     </row>
-    <row r="464" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="2"/>
       <c r="H464" s="1"/>
       <c r="I464" s="4"/>
       <c r="J464" s="1"/>
     </row>
-    <row r="465" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="2"/>
       <c r="H465" s="1"/>
       <c r="I465" s="4"/>
       <c r="J465" s="1"/>
     </row>
-    <row r="466" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="2"/>
       <c r="H466" s="1"/>
       <c r="I466" s="4"/>
       <c r="J466" s="1"/>
     </row>
-    <row r="467" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="2"/>
       <c r="H467" s="1"/>
       <c r="I467" s="4"/>
       <c r="J467" s="1"/>
     </row>
-    <row r="468" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="2"/>
       <c r="H468" s="1"/>
       <c r="I468" s="4"/>
       <c r="J468" s="1"/>
     </row>
-    <row r="469" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="2"/>
       <c r="H469" s="1"/>
       <c r="I469" s="4"/>
       <c r="J469" s="1"/>
     </row>
-    <row r="470" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
       <c r="H470" s="1"/>
       <c r="I470" s="4"/>
       <c r="J470" s="1"/>
     </row>
-    <row r="471" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="2"/>
       <c r="H471" s="1"/>
       <c r="I471" s="4"/>
       <c r="J471" s="1"/>
     </row>
-    <row r="472" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="2"/>
       <c r="H472" s="1"/>
       <c r="I472" s="4"/>
       <c r="J472" s="1"/>
     </row>
-    <row r="473" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="2"/>
       <c r="H473" s="1"/>
       <c r="I473" s="4"/>
       <c r="J473" s="1"/>
     </row>
-    <row r="474" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="2"/>
       <c r="H474" s="1"/>
       <c r="I474" s="4"/>
       <c r="J474" s="1"/>
     </row>
-    <row r="475" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="2"/>
       <c r="H475" s="1"/>
       <c r="I475" s="4"/>
       <c r="J475" s="1"/>
     </row>
-    <row r="476" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="2"/>
       <c r="H476" s="1"/>
       <c r="I476" s="4"/>
       <c r="J476" s="1"/>
     </row>
-    <row r="477" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="2"/>
       <c r="H477" s="1"/>
       <c r="I477" s="4"/>
       <c r="J477" s="1"/>
     </row>
-    <row r="478" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="2"/>
       <c r="H478" s="1"/>
       <c r="I478" s="4"/>
       <c r="J478" s="1"/>
     </row>
-    <row r="479" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="2"/>
       <c r="H479" s="1"/>
       <c r="I479" s="4"/>
       <c r="J479" s="1"/>
     </row>
-    <row r="480" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="2"/>
       <c r="H480" s="1"/>
       <c r="I480" s="4"/>
       <c r="J480" s="1"/>
     </row>
-    <row r="481" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="2"/>
       <c r="H481" s="1"/>
       <c r="I481" s="4"/>
       <c r="J481" s="1"/>
     </row>
-    <row r="482" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="2"/>
       <c r="H482" s="1"/>
       <c r="I482" s="4"/>
       <c r="J482" s="1"/>
     </row>
-    <row r="483" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="2"/>
       <c r="H483" s="1"/>
       <c r="I483" s="4"/>
       <c r="J483" s="1"/>
     </row>
-    <row r="484" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="2"/>
       <c r="H484" s="1"/>
       <c r="I484" s="4"/>
       <c r="J484" s="1"/>
     </row>
-    <row r="485" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="2"/>
       <c r="H485" s="1"/>
       <c r="I485" s="4"/>
       <c r="J485" s="1"/>
     </row>
-    <row r="486" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
       <c r="H486" s="1"/>
       <c r="I486" s="4"/>
       <c r="J486" s="1"/>
     </row>
-    <row r="487" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="2"/>
       <c r="H487" s="1"/>
       <c r="I487" s="4"/>
       <c r="J487" s="1"/>
     </row>
-    <row r="488" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="2"/>
       <c r="H488" s="1"/>
       <c r="I488" s="4"/>
       <c r="J488" s="1"/>
     </row>
-    <row r="489" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="2"/>
       <c r="H489" s="1"/>
       <c r="I489" s="4"/>
       <c r="J489" s="1"/>
     </row>
-    <row r="490" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="2"/>
       <c r="H490" s="1"/>
       <c r="I490" s="4"/>
       <c r="J490" s="1"/>
     </row>
-    <row r="491" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="2"/>
       <c r="H491" s="1"/>
       <c r="I491" s="4"/>
       <c r="J491" s="1"/>
     </row>
-    <row r="492" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="2"/>
       <c r="H492" s="1"/>
       <c r="I492" s="4"/>
       <c r="J492" s="1"/>
     </row>
-    <row r="493" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="2"/>
       <c r="H493" s="1"/>
       <c r="I493" s="4"/>
       <c r="J493" s="1"/>
     </row>
-    <row r="494" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="2"/>
       <c r="H494" s="1"/>
       <c r="I494" s="4"/>
       <c r="J494" s="1"/>
     </row>
-    <row r="495" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="2"/>
       <c r="H495" s="1"/>
       <c r="I495" s="4"/>
       <c r="J495" s="1"/>
     </row>
-    <row r="496" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="2"/>
       <c r="H496" s="1"/>
       <c r="I496" s="4"/>
       <c r="J496" s="1"/>
     </row>
-    <row r="497" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="2"/>
       <c r="H497" s="1"/>
       <c r="I497" s="4"/>
       <c r="J497" s="1"/>
     </row>
-    <row r="498" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="2"/>
       <c r="H498" s="1"/>
       <c r="I498" s="4"/>
       <c r="J498" s="1"/>
     </row>
-    <row r="499" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="2"/>
       <c r="H499" s="1"/>
       <c r="I499" s="4"/>
       <c r="J499" s="1"/>
     </row>
-    <row r="500" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="2"/>
       <c r="H500" s="1"/>
       <c r="I500" s="4"/>
       <c r="J500" s="1"/>
     </row>
-    <row r="501" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="2"/>
       <c r="H501" s="1"/>
       <c r="I501" s="4"/>
       <c r="J501" s="1"/>
     </row>
-    <row r="502" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
       <c r="H502" s="1"/>
       <c r="I502" s="4"/>
       <c r="J502" s="1"/>
     </row>
-    <row r="503" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="2"/>
       <c r="H503" s="1"/>
       <c r="I503" s="4"/>
       <c r="J503" s="1"/>
     </row>
-    <row r="504" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="2"/>
       <c r="H504" s="1"/>
       <c r="I504" s="4"/>
       <c r="J504" s="1"/>
     </row>
-    <row r="505" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="2"/>
       <c r="H505" s="1"/>
       <c r="I505" s="4"/>
       <c r="J505" s="1"/>
     </row>
-    <row r="506" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="2"/>
       <c r="H506" s="1"/>
       <c r="I506" s="4"/>
       <c r="J506" s="1"/>
     </row>
-    <row r="507" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="2"/>
       <c r="H507" s="1"/>
       <c r="I507" s="4"/>
       <c r="J507" s="1"/>
     </row>
-    <row r="508" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="2"/>
       <c r="H508" s="1"/>
       <c r="I508" s="4"/>
       <c r="J508" s="1"/>
     </row>
-    <row r="509" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="2"/>
       <c r="H509" s="1"/>
       <c r="I509" s="4"/>
       <c r="J509" s="1"/>
     </row>
-    <row r="510" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="2"/>
       <c r="H510" s="1"/>
       <c r="I510" s="4"/>
       <c r="J510" s="1"/>
     </row>
-    <row r="511" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="2"/>
       <c r="H511" s="1"/>
       <c r="I511" s="4"/>
       <c r="J511" s="1"/>
     </row>
-    <row r="512" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="2"/>
       <c r="H512" s="1"/>
       <c r="I512" s="4"/>
       <c r="J512" s="1"/>
     </row>
-    <row r="513" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="2"/>
       <c r="H513" s="1"/>
       <c r="I513" s="4"/>
       <c r="J513" s="1"/>
     </row>
-    <row r="514" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="2"/>
       <c r="H514" s="1"/>
       <c r="I514" s="4"/>
       <c r="J514" s="1"/>
     </row>
-    <row r="515" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="H515" s="1"/>
       <c r="I515" s="4"/>
       <c r="J515" s="1"/>
     </row>
-    <row r="516" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="H516" s="1"/>
       <c r="I516" s="4"/>
       <c r="J516" s="1"/>
     </row>
-    <row r="517" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="H517" s="1"/>
       <c r="I517" s="4"/>
       <c r="J517" s="1"/>
     </row>
-    <row r="518" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="H518" s="1"/>
       <c r="I518" s="4"/>
       <c r="J518" s="1"/>
     </row>
-    <row r="519" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="H519" s="1"/>
       <c r="I519" s="4"/>
       <c r="J519" s="1"/>
     </row>
-    <row r="520" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="H520" s="1"/>
       <c r="I520" s="4"/>
       <c r="J520" s="1"/>
     </row>
-    <row r="521" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="H521" s="1"/>
       <c r="I521" s="4"/>
       <c r="J521" s="1"/>
     </row>
-    <row r="522" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="H522" s="1"/>
       <c r="I522" s="4"/>
       <c r="J522" s="1"/>
     </row>
-    <row r="523" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="H523" s="1"/>
       <c r="I523" s="4"/>
       <c r="J523" s="1"/>
     </row>
-    <row r="524" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="H524" s="1"/>
       <c r="I524" s="4"/>
       <c r="J524" s="1"/>
     </row>
-    <row r="525" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="H525" s="1"/>
       <c r="I525" s="4"/>
       <c r="J525" s="1"/>
@@ -3527,14 +3705,14 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -3545,7 +3723,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3569,18 +3747,18 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3598,30 +3776,30 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="5" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="28.33203125" customWidth="1"/>
-    <col min="11" max="11" width="27.33203125" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" customWidth="1"/>
-    <col min="13" max="13" width="23.88671875" customWidth="1"/>
-    <col min="14" max="14" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="23.85546875" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1"/>
     <col min="15" max="15" width="28" customWidth="1"/>
-    <col min="16" max="16" width="24.5546875" customWidth="1"/>
-    <col min="17" max="17" width="17.21875" customWidth="1"/>
-    <col min="18" max="18" width="27.5546875" customWidth="1"/>
-    <col min="19" max="19" width="28.88671875" customWidth="1"/>
-    <col min="20" max="20" width="25.109375" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
+    <col min="18" max="18" width="27.5703125" customWidth="1"/>
+    <col min="19" max="19" width="28.85546875" customWidth="1"/>
+    <col min="20" max="20" width="25.140625" customWidth="1"/>
     <col min="21" max="21" width="27" customWidth="1"/>
-    <col min="22" max="22" width="20.33203125" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" customWidth="1"/>
+    <col min="22" max="22" width="20.28515625" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -3629,7 +3807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -3649,15 +3827,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.109375" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -3674,7 +3852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>

--- a/Conception Du Projet/data.xlsx
+++ b/Conception Du Projet/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Topnet-B2C-Stage-\Conception Du Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18027889-E980-49CF-B27E-48D51262A542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A3E4B3-00ED-47E8-BE18-84432301796C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{2905EF77-929B-4D71-BC2B-70257BADC6D2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="44">
   <si>
     <t>poids_offre</t>
   </si>
@@ -111,9 +111,6 @@
     <t>nombre_suspension</t>
   </si>
   <si>
-    <t>montant_en_cours</t>
-  </si>
-  <si>
     <t>facture_id</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>50.0</t>
   </si>
   <si>
-    <t>10.0</t>
-  </si>
-  <si>
     <t>30.0</t>
   </si>
   <si>
@@ -165,17 +159,17 @@
     <t>score_totale</t>
   </si>
   <si>
-    <t>ali</t>
+    <t>40.0</t>
   </si>
   <si>
-    <t>Mahmoud</t>
+    <t>70.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +201,22 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -237,10 +247,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -259,9 +270,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{16801B8A-4677-4D6F-BDB7-8F961E23DCAF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -573,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400534CA-BCFD-410E-9A74-5F528DB25B16}">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AG165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S95" sqref="S95:S98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,6 +603,11 @@
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" customWidth="1"/>
+    <col min="18" max="18" width="23.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -663,84 +686,84 @@
       <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1" t="s">
         <v>26</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>27</v>
       </c>
       <c r="AB1" t="s">
         <v>21</v>
       </c>
       <c r="AC1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>41</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
         <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
         <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9">
         <v>0</v>
       </c>
       <c r="S2">
@@ -752,82 +775,82 @@
       <c r="U2">
         <v>2</v>
       </c>
-      <c r="V2">
-        <v>0.5</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
+      <c r="V2" s="9">
+        <v>1</v>
+      </c>
+      <c r="W2" s="9">
+        <v>1</v>
+      </c>
+      <c r="X2" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>1</v>
       </c>
-      <c r="AB2" t="s">
-        <v>12</v>
+      <c r="AB2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
         <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
         <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
+        <v>1</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -838,81 +861,81 @@
       <c r="U3">
         <v>2</v>
       </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
+      <c r="V3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W3" s="8">
+        <v>0</v>
+      </c>
+      <c r="X3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3">
         <v>1</v>
       </c>
-      <c r="AB3" t="s">
-        <v>44</v>
+      <c r="AB3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
         <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
         <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>1</v>
+      </c>
+      <c r="R4" s="9">
         <v>0</v>
       </c>
       <c r="S4">
@@ -924,27 +947,8727 @@
       <c r="U4">
         <v>2</v>
       </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
+      <c r="V4" s="9">
+        <v>1</v>
+      </c>
+      <c r="W4" s="8">
+        <v>1</v>
+      </c>
+      <c r="X4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="10">
         <v>0</v>
       </c>
       <c r="AA4">
         <v>1</v>
       </c>
-      <c r="AB4" t="s">
-        <v>45</v>
-      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0</v>
+      </c>
+      <c r="S5" s="9">
+        <v>0</v>
+      </c>
+      <c r="T5" s="9">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W5" s="8">
+        <v>0</v>
+      </c>
+      <c r="X5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6" s="10">
+        <v>1</v>
+      </c>
+      <c r="W6" s="8">
+        <v>0</v>
+      </c>
+      <c r="X6" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>1</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>1</v>
+      </c>
+      <c r="R8" s="9">
+        <v>1</v>
+      </c>
+      <c r="S8" s="9">
+        <v>1</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8" s="10">
+        <v>1</v>
+      </c>
+      <c r="W8" s="8">
+        <v>0</v>
+      </c>
+      <c r="X8" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="11">
+        <v>1</v>
+      </c>
+      <c r="S9" s="9">
+        <v>1</v>
+      </c>
+      <c r="T9" s="9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W9" s="8">
+        <v>1</v>
+      </c>
+      <c r="X9" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
+        <v>1</v>
+      </c>
+      <c r="S10" s="9">
+        <v>1</v>
+      </c>
+      <c r="T10" s="9">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10" s="9">
+        <v>1</v>
+      </c>
+      <c r="W10" s="8">
+        <v>0</v>
+      </c>
+      <c r="X10" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9">
+        <v>1</v>
+      </c>
+      <c r="S11" s="9">
+        <v>1</v>
+      </c>
+      <c r="T11" s="9">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W11" s="8">
+        <v>1</v>
+      </c>
+      <c r="X11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>1</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12" s="9">
+        <v>1</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0</v>
+      </c>
+      <c r="S13" s="9">
+        <v>0</v>
+      </c>
+      <c r="T13" s="9">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W13" s="8">
+        <v>0</v>
+      </c>
+      <c r="X13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>1</v>
+      </c>
+      <c r="R14" s="9">
+        <v>1</v>
+      </c>
+      <c r="S14" s="9">
+        <v>1</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14" s="10">
+        <v>1</v>
+      </c>
+      <c r="W14" s="8">
+        <v>0</v>
+      </c>
+      <c r="X14" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0</v>
+      </c>
+      <c r="R15" s="9">
+        <v>1</v>
+      </c>
+      <c r="S15" s="9">
+        <v>1</v>
+      </c>
+      <c r="T15" s="9">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W15" s="8">
+        <v>1</v>
+      </c>
+      <c r="X15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0</v>
+      </c>
+      <c r="S16" s="9">
+        <v>0</v>
+      </c>
+      <c r="T16" s="9">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16" s="10">
+        <v>1</v>
+      </c>
+      <c r="W16" s="8">
+        <v>0</v>
+      </c>
+      <c r="X16" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>1</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W17" s="8">
+        <v>1</v>
+      </c>
+      <c r="X17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <v>1</v>
+      </c>
+      <c r="S18" s="9">
+        <v>1</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18" s="9">
+        <v>1</v>
+      </c>
+      <c r="W18" s="8">
+        <v>1</v>
+      </c>
+      <c r="X18" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>1</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W19" s="8">
+        <v>0</v>
+      </c>
+      <c r="X19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>1</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20" s="9">
+        <v>1</v>
+      </c>
+      <c r="W20" s="8">
+        <v>1</v>
+      </c>
+      <c r="X20" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>1</v>
+      </c>
+      <c r="R21" s="9">
+        <v>1</v>
+      </c>
+      <c r="S21" s="9">
+        <v>1</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W21" s="8">
+        <v>0</v>
+      </c>
+      <c r="X21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y21" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>1</v>
+      </c>
+      <c r="R22" s="9">
+        <v>1</v>
+      </c>
+      <c r="S22" s="9">
+        <v>1</v>
+      </c>
+      <c r="T22" s="9">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22" s="10">
+        <v>1</v>
+      </c>
+      <c r="W22" s="8">
+        <v>1</v>
+      </c>
+      <c r="X22" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>1</v>
+      </c>
+      <c r="R23" s="9">
+        <v>1</v>
+      </c>
+      <c r="S23" s="9">
+        <v>1</v>
+      </c>
+      <c r="T23" s="9">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W23" s="8">
+        <v>0</v>
+      </c>
+      <c r="X23" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y23" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>1</v>
+      </c>
+      <c r="R24" s="9">
+        <v>1</v>
+      </c>
+      <c r="S24" s="9">
+        <v>1</v>
+      </c>
+      <c r="T24" s="9">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="V24" s="10">
+        <v>1</v>
+      </c>
+      <c r="W24" s="8">
+        <v>0</v>
+      </c>
+      <c r="X24" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>1</v>
+      </c>
+      <c r="R25" s="9">
+        <v>1</v>
+      </c>
+      <c r="S25" s="9">
+        <v>1</v>
+      </c>
+      <c r="T25" s="9">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W25" s="8">
+        <v>1</v>
+      </c>
+      <c r="X25" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y25" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>1</v>
+      </c>
+      <c r="R26" s="9">
+        <v>1</v>
+      </c>
+      <c r="S26" s="9">
+        <v>1</v>
+      </c>
+      <c r="T26" s="9">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26" s="9">
+        <v>1</v>
+      </c>
+      <c r="W26" s="8">
+        <v>1</v>
+      </c>
+      <c r="X26" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" t="s">
+        <v>43</v>
+      </c>
+      <c r="N27" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0</v>
+      </c>
+      <c r="R27" s="9">
+        <v>1</v>
+      </c>
+      <c r="S27" s="9">
+        <v>1</v>
+      </c>
+      <c r="T27" s="9">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W27" s="8">
+        <v>0</v>
+      </c>
+      <c r="X27" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y27" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>1</v>
+      </c>
+      <c r="R28" s="9">
+        <v>0</v>
+      </c>
+      <c r="S28" s="9">
+        <v>0</v>
+      </c>
+      <c r="T28" s="9">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28" s="9">
+        <v>1</v>
+      </c>
+      <c r="W28" s="8">
+        <v>0</v>
+      </c>
+      <c r="X28" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0</v>
+      </c>
+      <c r="R29" s="9">
+        <v>1</v>
+      </c>
+      <c r="S29" s="9">
+        <v>1</v>
+      </c>
+      <c r="T29" s="9">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W29" s="8">
+        <v>0</v>
+      </c>
+      <c r="X29" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y29" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>1</v>
+      </c>
+      <c r="R30" s="9">
+        <v>0</v>
+      </c>
+      <c r="S30" s="9">
+        <v>0</v>
+      </c>
+      <c r="T30" s="9">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
+      </c>
+      <c r="V30" s="10">
+        <v>1</v>
+      </c>
+      <c r="W30" s="8">
+        <v>1</v>
+      </c>
+      <c r="X30" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" t="s">
+        <v>43</v>
+      </c>
+      <c r="N31" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>1</v>
+      </c>
+      <c r="R31" s="9">
+        <v>0</v>
+      </c>
+      <c r="S31" s="9">
+        <v>0</v>
+      </c>
+      <c r="T31" s="9">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W31" s="8">
+        <v>1</v>
+      </c>
+      <c r="X31" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y31" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
+      </c>
+      <c r="AB31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" t="s">
+        <v>36</v>
+      </c>
+      <c r="K32" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" t="s">
+        <v>43</v>
+      </c>
+      <c r="N32" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" t="s">
+        <v>34</v>
+      </c>
+      <c r="P32" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>0</v>
+      </c>
+      <c r="R32" s="9">
+        <v>0</v>
+      </c>
+      <c r="S32" s="9">
+        <v>0</v>
+      </c>
+      <c r="T32" s="9">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32" s="10">
+        <v>1</v>
+      </c>
+      <c r="W32" s="8">
+        <v>1</v>
+      </c>
+      <c r="X32" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" t="s">
+        <v>43</v>
+      </c>
+      <c r="N33" t="s">
+        <v>42</v>
+      </c>
+      <c r="O33" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>1</v>
+      </c>
+      <c r="R33" s="9">
+        <v>0</v>
+      </c>
+      <c r="S33" s="9">
+        <v>0</v>
+      </c>
+      <c r="T33" s="9">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>2</v>
+      </c>
+      <c r="V33" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W33" s="8">
+        <v>1</v>
+      </c>
+      <c r="X33" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" t="s">
+        <v>43</v>
+      </c>
+      <c r="N34" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>1</v>
+      </c>
+      <c r="R34" s="9">
+        <v>0</v>
+      </c>
+      <c r="S34" s="9">
+        <v>0</v>
+      </c>
+      <c r="T34" s="9">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>2</v>
+      </c>
+      <c r="V34" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W34" s="8">
+        <v>0</v>
+      </c>
+      <c r="X34" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y34" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35" t="s">
+        <v>36</v>
+      </c>
+      <c r="K35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" t="s">
+        <v>43</v>
+      </c>
+      <c r="N35" t="s">
+        <v>42</v>
+      </c>
+      <c r="O35" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>1</v>
+      </c>
+      <c r="R35" s="9">
+        <v>0</v>
+      </c>
+      <c r="S35" s="9">
+        <v>0</v>
+      </c>
+      <c r="T35" s="9">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W35" s="8">
+        <v>0</v>
+      </c>
+      <c r="X35" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M36" t="s">
+        <v>43</v>
+      </c>
+      <c r="N36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>0</v>
+      </c>
+      <c r="R36" s="9">
+        <v>1</v>
+      </c>
+      <c r="S36" s="9">
+        <v>1</v>
+      </c>
+      <c r="T36" s="9">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36" s="9">
+        <v>1</v>
+      </c>
+      <c r="W36" s="8">
+        <v>1</v>
+      </c>
+      <c r="X36" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" t="s">
+        <v>42</v>
+      </c>
+      <c r="J37" t="s">
+        <v>36</v>
+      </c>
+      <c r="K37" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" t="s">
+        <v>36</v>
+      </c>
+      <c r="M37" t="s">
+        <v>43</v>
+      </c>
+      <c r="N37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>1</v>
+      </c>
+      <c r="R37" s="9">
+        <v>0</v>
+      </c>
+      <c r="S37" s="9">
+        <v>0</v>
+      </c>
+      <c r="T37" s="9">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W37" s="8">
+        <v>0</v>
+      </c>
+      <c r="X37" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y37" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" t="s">
+        <v>36</v>
+      </c>
+      <c r="K38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" t="s">
+        <v>43</v>
+      </c>
+      <c r="N38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O38" t="s">
+        <v>34</v>
+      </c>
+      <c r="P38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>1</v>
+      </c>
+      <c r="R38" s="9">
+        <v>0</v>
+      </c>
+      <c r="S38" s="9">
+        <v>0</v>
+      </c>
+      <c r="T38" s="9">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W38" s="8">
+        <v>1</v>
+      </c>
+      <c r="X38" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y38" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" t="s">
+        <v>36</v>
+      </c>
+      <c r="K39" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" t="s">
+        <v>36</v>
+      </c>
+      <c r="M39" t="s">
+        <v>43</v>
+      </c>
+      <c r="N39" t="s">
+        <v>42</v>
+      </c>
+      <c r="O39" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q39" s="9">
+        <v>0</v>
+      </c>
+      <c r="R39" s="9">
+        <v>1</v>
+      </c>
+      <c r="S39" s="9">
+        <v>1</v>
+      </c>
+      <c r="T39" s="9">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W39" s="8">
+        <v>0</v>
+      </c>
+      <c r="X39" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y39" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" t="s">
+        <v>36</v>
+      </c>
+      <c r="K40" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" t="s">
+        <v>36</v>
+      </c>
+      <c r="M40" t="s">
+        <v>43</v>
+      </c>
+      <c r="N40" t="s">
+        <v>42</v>
+      </c>
+      <c r="O40" t="s">
+        <v>34</v>
+      </c>
+      <c r="P40" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q40" s="9">
+        <v>0</v>
+      </c>
+      <c r="R40" s="9">
+        <v>0</v>
+      </c>
+      <c r="S40" s="9">
+        <v>0</v>
+      </c>
+      <c r="T40" s="9">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40" s="9">
+        <v>1</v>
+      </c>
+      <c r="W40" s="8">
+        <v>0</v>
+      </c>
+      <c r="X40" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AB40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s">
+        <v>42</v>
+      </c>
+      <c r="J41" t="s">
+        <v>36</v>
+      </c>
+      <c r="K41" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" t="s">
+        <v>36</v>
+      </c>
+      <c r="M41" t="s">
+        <v>43</v>
+      </c>
+      <c r="N41" t="s">
+        <v>42</v>
+      </c>
+      <c r="O41" t="s">
+        <v>34</v>
+      </c>
+      <c r="P41" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q41" s="9">
+        <v>0</v>
+      </c>
+      <c r="R41" s="9">
+        <v>0</v>
+      </c>
+      <c r="S41" s="9">
+        <v>0</v>
+      </c>
+      <c r="T41" s="9">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="V41" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W41" s="8">
+        <v>1</v>
+      </c>
+      <c r="X41" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y41" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K42" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" t="s">
+        <v>36</v>
+      </c>
+      <c r="M42" t="s">
+        <v>43</v>
+      </c>
+      <c r="N42" t="s">
+        <v>42</v>
+      </c>
+      <c r="O42" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>0</v>
+      </c>
+      <c r="R42" s="9">
+        <v>1</v>
+      </c>
+      <c r="S42" s="9">
+        <v>1</v>
+      </c>
+      <c r="T42" s="9">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>2</v>
+      </c>
+      <c r="V42" s="10">
+        <v>1</v>
+      </c>
+      <c r="W42" s="8">
+        <v>0</v>
+      </c>
+      <c r="X42" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AB42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" t="s">
+        <v>36</v>
+      </c>
+      <c r="K43" t="s">
+        <v>36</v>
+      </c>
+      <c r="L43" t="s">
+        <v>36</v>
+      </c>
+      <c r="M43" t="s">
+        <v>43</v>
+      </c>
+      <c r="N43" t="s">
+        <v>42</v>
+      </c>
+      <c r="O43" t="s">
+        <v>34</v>
+      </c>
+      <c r="P43" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q43" s="9">
+        <v>0</v>
+      </c>
+      <c r="R43" s="9">
+        <v>0</v>
+      </c>
+      <c r="S43" s="9">
+        <v>0</v>
+      </c>
+      <c r="T43" s="9">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>2</v>
+      </c>
+      <c r="V43" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W43" s="8">
+        <v>1</v>
+      </c>
+      <c r="X43" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y43" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AB43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" t="s">
+        <v>34</v>
+      </c>
+      <c r="H44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" t="s">
+        <v>36</v>
+      </c>
+      <c r="K44" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" t="s">
+        <v>36</v>
+      </c>
+      <c r="M44" t="s">
+        <v>43</v>
+      </c>
+      <c r="N44" t="s">
+        <v>42</v>
+      </c>
+      <c r="O44" t="s">
+        <v>34</v>
+      </c>
+      <c r="P44" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>0</v>
+      </c>
+      <c r="R44" s="9">
+        <v>0</v>
+      </c>
+      <c r="S44" s="9">
+        <v>0</v>
+      </c>
+      <c r="T44" s="9">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>2</v>
+      </c>
+      <c r="V44" s="10">
+        <v>1</v>
+      </c>
+      <c r="W44" s="8">
+        <v>1</v>
+      </c>
+      <c r="X44" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
+      <c r="AB44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" t="s">
+        <v>36</v>
+      </c>
+      <c r="K45" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45" t="s">
+        <v>36</v>
+      </c>
+      <c r="M45" t="s">
+        <v>43</v>
+      </c>
+      <c r="N45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O45" t="s">
+        <v>34</v>
+      </c>
+      <c r="P45" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q45" s="9">
+        <v>0</v>
+      </c>
+      <c r="R45" s="9">
+        <v>0</v>
+      </c>
+      <c r="S45" s="9">
+        <v>0</v>
+      </c>
+      <c r="T45" s="9">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W45" s="8">
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y45" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA45">
+        <v>1</v>
+      </c>
+      <c r="AB45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" t="s">
+        <v>36</v>
+      </c>
+      <c r="M46" t="s">
+        <v>43</v>
+      </c>
+      <c r="N46" t="s">
+        <v>42</v>
+      </c>
+      <c r="O46" t="s">
+        <v>34</v>
+      </c>
+      <c r="P46" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q46" s="9">
+        <v>0</v>
+      </c>
+      <c r="R46" s="9">
+        <v>0</v>
+      </c>
+      <c r="S46" s="9">
+        <v>0</v>
+      </c>
+      <c r="T46" s="9">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>2</v>
+      </c>
+      <c r="V46" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W46" s="8">
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y46" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AB46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" t="s">
+        <v>42</v>
+      </c>
+      <c r="J47" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" t="s">
+        <v>36</v>
+      </c>
+      <c r="L47" t="s">
+        <v>36</v>
+      </c>
+      <c r="M47" t="s">
+        <v>43</v>
+      </c>
+      <c r="N47" t="s">
+        <v>42</v>
+      </c>
+      <c r="O47" t="s">
+        <v>34</v>
+      </c>
+      <c r="P47" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q47" s="9">
+        <v>0</v>
+      </c>
+      <c r="R47" s="9">
+        <v>0</v>
+      </c>
+      <c r="S47" s="9">
+        <v>0</v>
+      </c>
+      <c r="T47" s="9">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+      <c r="V47" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W47" s="8">
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y47" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48" t="s">
+        <v>36</v>
+      </c>
+      <c r="L48" t="s">
+        <v>36</v>
+      </c>
+      <c r="M48" t="s">
+        <v>43</v>
+      </c>
+      <c r="N48" t="s">
+        <v>42</v>
+      </c>
+      <c r="O48" t="s">
+        <v>34</v>
+      </c>
+      <c r="P48" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q48" s="9">
+        <v>0</v>
+      </c>
+      <c r="R48" s="9">
+        <v>0</v>
+      </c>
+      <c r="S48" s="9">
+        <v>0</v>
+      </c>
+      <c r="T48" s="9">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48" s="9">
+        <v>1</v>
+      </c>
+      <c r="W48" s="8">
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" t="s">
+        <v>42</v>
+      </c>
+      <c r="J49" t="s">
+        <v>36</v>
+      </c>
+      <c r="K49" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49" t="s">
+        <v>36</v>
+      </c>
+      <c r="M49" t="s">
+        <v>43</v>
+      </c>
+      <c r="N49" t="s">
+        <v>42</v>
+      </c>
+      <c r="O49" t="s">
+        <v>34</v>
+      </c>
+      <c r="P49" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q49" s="9">
+        <v>0</v>
+      </c>
+      <c r="R49" s="9">
+        <v>1</v>
+      </c>
+      <c r="S49" s="9">
+        <v>1</v>
+      </c>
+      <c r="T49" s="9">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+      <c r="V49" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W49" s="8">
+        <v>0</v>
+      </c>
+      <c r="X49" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y49" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AB49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" t="s">
+        <v>42</v>
+      </c>
+      <c r="J50" t="s">
+        <v>36</v>
+      </c>
+      <c r="K50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M50" t="s">
+        <v>43</v>
+      </c>
+      <c r="N50" t="s">
+        <v>42</v>
+      </c>
+      <c r="O50" t="s">
+        <v>34</v>
+      </c>
+      <c r="P50" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q50" s="9">
+        <v>1</v>
+      </c>
+      <c r="R50" s="9">
+        <v>0</v>
+      </c>
+      <c r="S50" s="9">
+        <v>0</v>
+      </c>
+      <c r="T50" s="9">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>2</v>
+      </c>
+      <c r="V50" s="10">
+        <v>1</v>
+      </c>
+      <c r="W50" s="8">
+        <v>1</v>
+      </c>
+      <c r="X50" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J51" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" t="s">
+        <v>36</v>
+      </c>
+      <c r="L51" t="s">
+        <v>36</v>
+      </c>
+      <c r="M51" t="s">
+        <v>43</v>
+      </c>
+      <c r="N51" t="s">
+        <v>42</v>
+      </c>
+      <c r="O51" t="s">
+        <v>34</v>
+      </c>
+      <c r="P51" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q51" s="9">
+        <v>1</v>
+      </c>
+      <c r="R51" s="9">
+        <v>1</v>
+      </c>
+      <c r="S51" s="9">
+        <v>1</v>
+      </c>
+      <c r="T51" s="9">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>2</v>
+      </c>
+      <c r="V51" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W51" s="8">
+        <v>0</v>
+      </c>
+      <c r="X51" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y51" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA51">
+        <v>1</v>
+      </c>
+      <c r="AB51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" t="s">
+        <v>34</v>
+      </c>
+      <c r="H52" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" t="s">
+        <v>42</v>
+      </c>
+      <c r="J52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" t="s">
+        <v>36</v>
+      </c>
+      <c r="L52" t="s">
+        <v>36</v>
+      </c>
+      <c r="M52" t="s">
+        <v>43</v>
+      </c>
+      <c r="N52" t="s">
+        <v>42</v>
+      </c>
+      <c r="O52" t="s">
+        <v>34</v>
+      </c>
+      <c r="P52" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q52" s="9">
+        <v>0</v>
+      </c>
+      <c r="R52" s="9">
+        <v>0</v>
+      </c>
+      <c r="S52" s="9">
+        <v>0</v>
+      </c>
+      <c r="T52" s="9">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>2</v>
+      </c>
+      <c r="V52" s="10">
+        <v>1</v>
+      </c>
+      <c r="W52" s="8">
+        <v>0</v>
+      </c>
+      <c r="X52" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA52">
+        <v>1</v>
+      </c>
+      <c r="AB52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" t="s">
+        <v>42</v>
+      </c>
+      <c r="J53" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" t="s">
+        <v>36</v>
+      </c>
+      <c r="M53" t="s">
+        <v>43</v>
+      </c>
+      <c r="N53" t="s">
+        <v>42</v>
+      </c>
+      <c r="O53" t="s">
+        <v>34</v>
+      </c>
+      <c r="P53" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q53" s="9">
+        <v>1</v>
+      </c>
+      <c r="R53" s="9">
+        <v>0</v>
+      </c>
+      <c r="S53" s="9">
+        <v>0</v>
+      </c>
+      <c r="T53" s="9">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>2</v>
+      </c>
+      <c r="V53" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W53" s="8">
+        <v>0</v>
+      </c>
+      <c r="X53" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y53" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA53">
+        <v>1</v>
+      </c>
+      <c r="AB53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" t="s">
+        <v>42</v>
+      </c>
+      <c r="J54" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54" t="s">
+        <v>36</v>
+      </c>
+      <c r="L54" t="s">
+        <v>36</v>
+      </c>
+      <c r="M54" t="s">
+        <v>43</v>
+      </c>
+      <c r="N54" t="s">
+        <v>42</v>
+      </c>
+      <c r="O54" t="s">
+        <v>34</v>
+      </c>
+      <c r="P54" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q54" s="9">
+        <v>1</v>
+      </c>
+      <c r="R54" s="9">
+        <v>0</v>
+      </c>
+      <c r="S54" s="9">
+        <v>0</v>
+      </c>
+      <c r="T54" s="9">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>2</v>
+      </c>
+      <c r="V54" s="9">
+        <v>1</v>
+      </c>
+      <c r="W54" s="8">
+        <v>1</v>
+      </c>
+      <c r="X54" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AB54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" t="s">
+        <v>42</v>
+      </c>
+      <c r="J55" t="s">
+        <v>36</v>
+      </c>
+      <c r="K55" t="s">
+        <v>36</v>
+      </c>
+      <c r="L55" t="s">
+        <v>36</v>
+      </c>
+      <c r="M55" t="s">
+        <v>43</v>
+      </c>
+      <c r="N55" t="s">
+        <v>42</v>
+      </c>
+      <c r="O55" t="s">
+        <v>34</v>
+      </c>
+      <c r="P55" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q55" s="9">
+        <v>0</v>
+      </c>
+      <c r="R55" s="9">
+        <v>1</v>
+      </c>
+      <c r="S55" s="9">
+        <v>1</v>
+      </c>
+      <c r="T55" s="9">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
+      <c r="V55" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W55" s="8">
+        <v>1</v>
+      </c>
+      <c r="X55" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y55" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AB55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" t="s">
+        <v>42</v>
+      </c>
+      <c r="J56" t="s">
+        <v>36</v>
+      </c>
+      <c r="K56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N56" t="s">
+        <v>42</v>
+      </c>
+      <c r="O56" t="s">
+        <v>34</v>
+      </c>
+      <c r="P56" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q56" s="9">
+        <v>0</v>
+      </c>
+      <c r="R56" s="9">
+        <v>0</v>
+      </c>
+      <c r="S56" s="9">
+        <v>0</v>
+      </c>
+      <c r="T56" s="9">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56" s="9">
+        <v>1</v>
+      </c>
+      <c r="W56" s="8">
+        <v>0</v>
+      </c>
+      <c r="X56" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA56">
+        <v>1</v>
+      </c>
+      <c r="AB56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" t="s">
+        <v>34</v>
+      </c>
+      <c r="H57" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" t="s">
+        <v>42</v>
+      </c>
+      <c r="J57" t="s">
+        <v>36</v>
+      </c>
+      <c r="K57" t="s">
+        <v>36</v>
+      </c>
+      <c r="L57" t="s">
+        <v>36</v>
+      </c>
+      <c r="M57" t="s">
+        <v>43</v>
+      </c>
+      <c r="N57" t="s">
+        <v>42</v>
+      </c>
+      <c r="O57" t="s">
+        <v>34</v>
+      </c>
+      <c r="P57" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q57" s="9">
+        <v>1</v>
+      </c>
+      <c r="R57" s="9">
+        <v>1</v>
+      </c>
+      <c r="S57" s="9">
+        <v>1</v>
+      </c>
+      <c r="T57" s="9">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="V57" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W57" s="8">
+        <v>0</v>
+      </c>
+      <c r="X57" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y57" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H58" t="s">
+        <v>34</v>
+      </c>
+      <c r="I58" t="s">
+        <v>42</v>
+      </c>
+      <c r="J58" t="s">
+        <v>36</v>
+      </c>
+      <c r="K58" t="s">
+        <v>36</v>
+      </c>
+      <c r="L58" t="s">
+        <v>36</v>
+      </c>
+      <c r="M58" t="s">
+        <v>43</v>
+      </c>
+      <c r="N58" t="s">
+        <v>42</v>
+      </c>
+      <c r="O58" t="s">
+        <v>34</v>
+      </c>
+      <c r="P58" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q58" s="9">
+        <v>1</v>
+      </c>
+      <c r="R58" s="9">
+        <v>1</v>
+      </c>
+      <c r="S58" s="9">
+        <v>1</v>
+      </c>
+      <c r="T58" s="9">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <v>2</v>
+      </c>
+      <c r="V58" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W58" s="8">
+        <v>0</v>
+      </c>
+      <c r="X58" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y58" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA58">
+        <v>1</v>
+      </c>
+      <c r="AB58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" t="s">
+        <v>42</v>
+      </c>
+      <c r="J59" t="s">
+        <v>36</v>
+      </c>
+      <c r="K59" t="s">
+        <v>36</v>
+      </c>
+      <c r="L59" t="s">
+        <v>36</v>
+      </c>
+      <c r="M59" t="s">
+        <v>43</v>
+      </c>
+      <c r="N59" t="s">
+        <v>42</v>
+      </c>
+      <c r="O59" t="s">
+        <v>34</v>
+      </c>
+      <c r="P59" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q59" s="9">
+        <v>1</v>
+      </c>
+      <c r="R59" s="9">
+        <v>1</v>
+      </c>
+      <c r="S59" s="9">
+        <v>1</v>
+      </c>
+      <c r="T59" s="9">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>2</v>
+      </c>
+      <c r="V59" s="9">
+        <v>1</v>
+      </c>
+      <c r="W59" s="8">
+        <v>0</v>
+      </c>
+      <c r="X59" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA59">
+        <v>1</v>
+      </c>
+      <c r="AB59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" t="s">
+        <v>34</v>
+      </c>
+      <c r="H60" t="s">
+        <v>34</v>
+      </c>
+      <c r="I60" t="s">
+        <v>42</v>
+      </c>
+      <c r="J60" t="s">
+        <v>36</v>
+      </c>
+      <c r="K60" t="s">
+        <v>36</v>
+      </c>
+      <c r="L60" t="s">
+        <v>36</v>
+      </c>
+      <c r="M60" t="s">
+        <v>43</v>
+      </c>
+      <c r="N60" t="s">
+        <v>42</v>
+      </c>
+      <c r="O60" t="s">
+        <v>34</v>
+      </c>
+      <c r="P60" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q60" s="9">
+        <v>0</v>
+      </c>
+      <c r="R60" s="9">
+        <v>1</v>
+      </c>
+      <c r="S60" s="9">
+        <v>1</v>
+      </c>
+      <c r="T60" s="9">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>2</v>
+      </c>
+      <c r="V60" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W60" s="8">
+        <v>1</v>
+      </c>
+      <c r="X60" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y60" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" t="s">
+        <v>42</v>
+      </c>
+      <c r="J61" t="s">
+        <v>36</v>
+      </c>
+      <c r="K61" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61" t="s">
+        <v>36</v>
+      </c>
+      <c r="M61" t="s">
+        <v>43</v>
+      </c>
+      <c r="N61" t="s">
+        <v>42</v>
+      </c>
+      <c r="O61" t="s">
+        <v>34</v>
+      </c>
+      <c r="P61" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q61" s="9">
+        <v>0</v>
+      </c>
+      <c r="R61" s="9">
+        <v>1</v>
+      </c>
+      <c r="S61" s="9">
+        <v>1</v>
+      </c>
+      <c r="T61" s="9">
+        <v>1</v>
+      </c>
+      <c r="U61">
+        <v>2</v>
+      </c>
+      <c r="V61" s="10">
+        <v>1</v>
+      </c>
+      <c r="W61" s="8">
+        <v>1</v>
+      </c>
+      <c r="X61" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA61">
+        <v>1</v>
+      </c>
+      <c r="AB61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62" t="s">
+        <v>34</v>
+      </c>
+      <c r="I62" t="s">
+        <v>42</v>
+      </c>
+      <c r="J62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K62" t="s">
+        <v>36</v>
+      </c>
+      <c r="L62" t="s">
+        <v>36</v>
+      </c>
+      <c r="M62" t="s">
+        <v>43</v>
+      </c>
+      <c r="N62" t="s">
+        <v>42</v>
+      </c>
+      <c r="O62" t="s">
+        <v>34</v>
+      </c>
+      <c r="P62" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q62" s="9">
+        <v>0</v>
+      </c>
+      <c r="R62" s="9">
+        <v>1</v>
+      </c>
+      <c r="S62" s="9">
+        <v>1</v>
+      </c>
+      <c r="T62" s="9">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>2</v>
+      </c>
+      <c r="V62" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W62" s="8">
+        <v>0</v>
+      </c>
+      <c r="X62" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y62" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA62">
+        <v>1</v>
+      </c>
+      <c r="AB62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" t="s">
+        <v>42</v>
+      </c>
+      <c r="J63" t="s">
+        <v>36</v>
+      </c>
+      <c r="K63" t="s">
+        <v>36</v>
+      </c>
+      <c r="L63" t="s">
+        <v>36</v>
+      </c>
+      <c r="M63" t="s">
+        <v>43</v>
+      </c>
+      <c r="N63" t="s">
+        <v>42</v>
+      </c>
+      <c r="O63" t="s">
+        <v>34</v>
+      </c>
+      <c r="P63" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q63" s="9">
+        <v>0</v>
+      </c>
+      <c r="R63" s="9">
+        <v>0</v>
+      </c>
+      <c r="S63" s="9">
+        <v>0</v>
+      </c>
+      <c r="T63" s="9">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63" s="10">
+        <v>1</v>
+      </c>
+      <c r="W63" s="8">
+        <v>1</v>
+      </c>
+      <c r="X63" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA63">
+        <v>1</v>
+      </c>
+      <c r="AB63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" t="s">
+        <v>42</v>
+      </c>
+      <c r="J64" t="s">
+        <v>36</v>
+      </c>
+      <c r="K64" t="s">
+        <v>36</v>
+      </c>
+      <c r="L64" t="s">
+        <v>36</v>
+      </c>
+      <c r="M64" t="s">
+        <v>43</v>
+      </c>
+      <c r="N64" t="s">
+        <v>42</v>
+      </c>
+      <c r="O64" t="s">
+        <v>34</v>
+      </c>
+      <c r="P64" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q64" s="9">
+        <v>1</v>
+      </c>
+      <c r="R64" s="9">
+        <v>0</v>
+      </c>
+      <c r="S64" s="9">
+        <v>0</v>
+      </c>
+      <c r="T64" s="9">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>2</v>
+      </c>
+      <c r="V64" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W64" s="8">
+        <v>1</v>
+      </c>
+      <c r="X64" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y64" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA64">
+        <v>1</v>
+      </c>
+      <c r="AB64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" t="s">
+        <v>42</v>
+      </c>
+      <c r="J65" t="s">
+        <v>36</v>
+      </c>
+      <c r="K65" t="s">
+        <v>36</v>
+      </c>
+      <c r="L65" t="s">
+        <v>36</v>
+      </c>
+      <c r="M65" t="s">
+        <v>43</v>
+      </c>
+      <c r="N65" t="s">
+        <v>42</v>
+      </c>
+      <c r="O65" t="s">
+        <v>34</v>
+      </c>
+      <c r="P65" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q65" s="9">
+        <v>0</v>
+      </c>
+      <c r="R65" s="9">
+        <v>0</v>
+      </c>
+      <c r="S65" s="9">
+        <v>0</v>
+      </c>
+      <c r="T65" s="9">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>2</v>
+      </c>
+      <c r="V65" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W65" s="8">
+        <v>0</v>
+      </c>
+      <c r="X65" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y65" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA65">
+        <v>1</v>
+      </c>
+      <c r="AB65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" t="s">
+        <v>42</v>
+      </c>
+      <c r="J66" t="s">
+        <v>36</v>
+      </c>
+      <c r="K66" t="s">
+        <v>36</v>
+      </c>
+      <c r="L66" t="s">
+        <v>36</v>
+      </c>
+      <c r="M66" t="s">
+        <v>43</v>
+      </c>
+      <c r="N66" t="s">
+        <v>42</v>
+      </c>
+      <c r="O66" t="s">
+        <v>34</v>
+      </c>
+      <c r="P66" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q66" s="9">
+        <v>1</v>
+      </c>
+      <c r="R66" s="9">
+        <v>0</v>
+      </c>
+      <c r="S66" s="9">
+        <v>0</v>
+      </c>
+      <c r="T66" s="9">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>2</v>
+      </c>
+      <c r="V66" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W66" s="8">
+        <v>0</v>
+      </c>
+      <c r="X66" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y66" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA66">
+        <v>1</v>
+      </c>
+      <c r="AB66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" t="s">
+        <v>42</v>
+      </c>
+      <c r="J67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M67" t="s">
+        <v>43</v>
+      </c>
+      <c r="N67" t="s">
+        <v>42</v>
+      </c>
+      <c r="O67" t="s">
+        <v>34</v>
+      </c>
+      <c r="P67" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q67" s="9">
+        <v>1</v>
+      </c>
+      <c r="R67" s="9">
+        <v>1</v>
+      </c>
+      <c r="S67" s="9">
+        <v>1</v>
+      </c>
+      <c r="T67" s="9">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>2</v>
+      </c>
+      <c r="V67" s="9">
+        <v>1</v>
+      </c>
+      <c r="W67" s="8">
+        <v>1</v>
+      </c>
+      <c r="X67" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z67" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA67">
+        <v>1</v>
+      </c>
+      <c r="AB67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" t="s">
+        <v>42</v>
+      </c>
+      <c r="J68" t="s">
+        <v>36</v>
+      </c>
+      <c r="K68" t="s">
+        <v>36</v>
+      </c>
+      <c r="L68" t="s">
+        <v>36</v>
+      </c>
+      <c r="M68" t="s">
+        <v>43</v>
+      </c>
+      <c r="N68" t="s">
+        <v>42</v>
+      </c>
+      <c r="O68" t="s">
+        <v>34</v>
+      </c>
+      <c r="P68" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q68" s="9">
+        <v>0</v>
+      </c>
+      <c r="R68" s="9">
+        <v>1</v>
+      </c>
+      <c r="S68" s="9">
+        <v>1</v>
+      </c>
+      <c r="T68" s="9">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>2</v>
+      </c>
+      <c r="V68" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W68" s="8">
+        <v>1</v>
+      </c>
+      <c r="X68" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y68" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z68" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA68">
+        <v>1</v>
+      </c>
+      <c r="AB68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" t="s">
+        <v>36</v>
+      </c>
+      <c r="G69" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69" t="s">
+        <v>42</v>
+      </c>
+      <c r="J69" t="s">
+        <v>36</v>
+      </c>
+      <c r="K69" t="s">
+        <v>36</v>
+      </c>
+      <c r="L69" t="s">
+        <v>36</v>
+      </c>
+      <c r="M69" t="s">
+        <v>43</v>
+      </c>
+      <c r="N69" t="s">
+        <v>42</v>
+      </c>
+      <c r="O69" t="s">
+        <v>34</v>
+      </c>
+      <c r="P69" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q69" s="9">
+        <v>1</v>
+      </c>
+      <c r="R69" s="9">
+        <v>1</v>
+      </c>
+      <c r="S69" s="9">
+        <v>1</v>
+      </c>
+      <c r="T69" s="9">
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69" s="10">
+        <v>1</v>
+      </c>
+      <c r="W69" s="8">
+        <v>0</v>
+      </c>
+      <c r="X69" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA69">
+        <v>1</v>
+      </c>
+      <c r="AB69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" t="s">
+        <v>42</v>
+      </c>
+      <c r="J70" t="s">
+        <v>36</v>
+      </c>
+      <c r="K70" t="s">
+        <v>36</v>
+      </c>
+      <c r="L70" t="s">
+        <v>36</v>
+      </c>
+      <c r="M70" t="s">
+        <v>43</v>
+      </c>
+      <c r="N70" t="s">
+        <v>42</v>
+      </c>
+      <c r="O70" t="s">
+        <v>34</v>
+      </c>
+      <c r="P70" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q70" s="9">
+        <v>1</v>
+      </c>
+      <c r="R70" s="9">
+        <v>1</v>
+      </c>
+      <c r="S70" s="9">
+        <v>1</v>
+      </c>
+      <c r="T70" s="9">
+        <v>1</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W70" s="8">
+        <v>1</v>
+      </c>
+      <c r="X70" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y70" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA70">
+        <v>1</v>
+      </c>
+      <c r="AB70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" t="s">
+        <v>42</v>
+      </c>
+      <c r="J71" t="s">
+        <v>36</v>
+      </c>
+      <c r="K71" t="s">
+        <v>36</v>
+      </c>
+      <c r="L71" t="s">
+        <v>36</v>
+      </c>
+      <c r="M71" t="s">
+        <v>43</v>
+      </c>
+      <c r="N71" t="s">
+        <v>42</v>
+      </c>
+      <c r="O71" t="s">
+        <v>34</v>
+      </c>
+      <c r="P71" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q71" s="9">
+        <v>1</v>
+      </c>
+      <c r="R71" s="9">
+        <v>1</v>
+      </c>
+      <c r="S71" s="9">
+        <v>1</v>
+      </c>
+      <c r="T71" s="9">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>2</v>
+      </c>
+      <c r="V71" s="10">
+        <v>1</v>
+      </c>
+      <c r="W71" s="8">
+        <v>0</v>
+      </c>
+      <c r="X71" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z71" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA71">
+        <v>1</v>
+      </c>
+      <c r="AB71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" t="s">
+        <v>42</v>
+      </c>
+      <c r="J72" t="s">
+        <v>36</v>
+      </c>
+      <c r="K72" t="s">
+        <v>36</v>
+      </c>
+      <c r="L72" t="s">
+        <v>36</v>
+      </c>
+      <c r="M72" t="s">
+        <v>43</v>
+      </c>
+      <c r="N72" t="s">
+        <v>42</v>
+      </c>
+      <c r="O72" t="s">
+        <v>34</v>
+      </c>
+      <c r="P72" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q72" s="9">
+        <v>0</v>
+      </c>
+      <c r="R72" s="9">
+        <v>1</v>
+      </c>
+      <c r="S72" s="9">
+        <v>1</v>
+      </c>
+      <c r="T72" s="9">
+        <v>1</v>
+      </c>
+      <c r="U72">
+        <v>2</v>
+      </c>
+      <c r="V72" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W72" s="8">
+        <v>0</v>
+      </c>
+      <c r="X72" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y72" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z72" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA72">
+        <v>1</v>
+      </c>
+      <c r="AB72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73" t="s">
+        <v>36</v>
+      </c>
+      <c r="G73" t="s">
+        <v>34</v>
+      </c>
+      <c r="H73" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" t="s">
+        <v>42</v>
+      </c>
+      <c r="J73" t="s">
+        <v>36</v>
+      </c>
+      <c r="K73" t="s">
+        <v>36</v>
+      </c>
+      <c r="L73" t="s">
+        <v>36</v>
+      </c>
+      <c r="M73" t="s">
+        <v>43</v>
+      </c>
+      <c r="N73" t="s">
+        <v>42</v>
+      </c>
+      <c r="O73" t="s">
+        <v>34</v>
+      </c>
+      <c r="P73" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q73" s="9">
+        <v>0</v>
+      </c>
+      <c r="R73" s="9">
+        <v>1</v>
+      </c>
+      <c r="S73" s="9">
+        <v>1</v>
+      </c>
+      <c r="T73" s="9">
+        <v>1</v>
+      </c>
+      <c r="U73">
+        <v>2</v>
+      </c>
+      <c r="V73" s="9">
+        <v>1</v>
+      </c>
+      <c r="W73" s="8">
+        <v>1</v>
+      </c>
+      <c r="X73" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA73">
+        <v>1</v>
+      </c>
+      <c r="AB73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" t="s">
+        <v>42</v>
+      </c>
+      <c r="J74" t="s">
+        <v>36</v>
+      </c>
+      <c r="K74" t="s">
+        <v>36</v>
+      </c>
+      <c r="L74" t="s">
+        <v>36</v>
+      </c>
+      <c r="M74" t="s">
+        <v>43</v>
+      </c>
+      <c r="N74" t="s">
+        <v>42</v>
+      </c>
+      <c r="O74" t="s">
+        <v>34</v>
+      </c>
+      <c r="P74" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q74" s="9">
+        <v>1</v>
+      </c>
+      <c r="R74" s="9">
+        <v>0</v>
+      </c>
+      <c r="S74" s="9">
+        <v>0</v>
+      </c>
+      <c r="T74" s="9">
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W74" s="8">
+        <v>1</v>
+      </c>
+      <c r="X74" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y74" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA74">
+        <v>1</v>
+      </c>
+      <c r="AB74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75" t="s">
+        <v>36</v>
+      </c>
+      <c r="G75" t="s">
+        <v>34</v>
+      </c>
+      <c r="H75" t="s">
+        <v>34</v>
+      </c>
+      <c r="I75" t="s">
+        <v>42</v>
+      </c>
+      <c r="J75" t="s">
+        <v>36</v>
+      </c>
+      <c r="K75" t="s">
+        <v>36</v>
+      </c>
+      <c r="L75" t="s">
+        <v>36</v>
+      </c>
+      <c r="M75" t="s">
+        <v>43</v>
+      </c>
+      <c r="N75" t="s">
+        <v>42</v>
+      </c>
+      <c r="O75" t="s">
+        <v>34</v>
+      </c>
+      <c r="P75" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q75" s="9">
+        <v>0</v>
+      </c>
+      <c r="R75" s="9">
+        <v>0</v>
+      </c>
+      <c r="S75" s="9">
+        <v>0</v>
+      </c>
+      <c r="T75" s="9">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>2</v>
+      </c>
+      <c r="V75" s="9">
+        <v>1</v>
+      </c>
+      <c r="W75" s="8">
+        <v>1</v>
+      </c>
+      <c r="X75" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y75" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA75">
+        <v>1</v>
+      </c>
+      <c r="AB75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" t="s">
+        <v>42</v>
+      </c>
+      <c r="J76" t="s">
+        <v>36</v>
+      </c>
+      <c r="K76" t="s">
+        <v>36</v>
+      </c>
+      <c r="L76" t="s">
+        <v>36</v>
+      </c>
+      <c r="M76" t="s">
+        <v>43</v>
+      </c>
+      <c r="N76" t="s">
+        <v>42</v>
+      </c>
+      <c r="O76" t="s">
+        <v>34</v>
+      </c>
+      <c r="P76" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q76" s="9">
+        <v>1</v>
+      </c>
+      <c r="R76" s="9">
+        <v>1</v>
+      </c>
+      <c r="S76" s="9">
+        <v>1</v>
+      </c>
+      <c r="T76" s="9">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>2</v>
+      </c>
+      <c r="V76" s="8">
+        <v>1</v>
+      </c>
+      <c r="W76" s="8">
+        <v>1</v>
+      </c>
+      <c r="X76" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y76" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z76" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA76">
+        <v>1</v>
+      </c>
+      <c r="AB76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77" t="s">
+        <v>42</v>
+      </c>
+      <c r="J77" t="s">
+        <v>36</v>
+      </c>
+      <c r="K77" t="s">
+        <v>36</v>
+      </c>
+      <c r="L77" t="s">
+        <v>36</v>
+      </c>
+      <c r="M77" t="s">
+        <v>43</v>
+      </c>
+      <c r="N77" t="s">
+        <v>42</v>
+      </c>
+      <c r="O77" t="s">
+        <v>34</v>
+      </c>
+      <c r="P77" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q77" s="9">
+        <v>1</v>
+      </c>
+      <c r="R77" s="9">
+        <v>1</v>
+      </c>
+      <c r="S77" s="9">
+        <v>1</v>
+      </c>
+      <c r="T77" s="9">
+        <v>1</v>
+      </c>
+      <c r="U77">
+        <v>2</v>
+      </c>
+      <c r="V77" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W77" s="8">
+        <v>1</v>
+      </c>
+      <c r="X77" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z77" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA77">
+        <v>1</v>
+      </c>
+      <c r="AB77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78" t="s">
+        <v>34</v>
+      </c>
+      <c r="I78" t="s">
+        <v>42</v>
+      </c>
+      <c r="J78" t="s">
+        <v>36</v>
+      </c>
+      <c r="K78" t="s">
+        <v>36</v>
+      </c>
+      <c r="L78" t="s">
+        <v>36</v>
+      </c>
+      <c r="M78" t="s">
+        <v>43</v>
+      </c>
+      <c r="N78" t="s">
+        <v>42</v>
+      </c>
+      <c r="O78" t="s">
+        <v>34</v>
+      </c>
+      <c r="P78" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q78" s="9">
+        <v>1</v>
+      </c>
+      <c r="R78" s="9">
+        <v>1</v>
+      </c>
+      <c r="S78" s="9">
+        <v>1</v>
+      </c>
+      <c r="T78" s="9">
+        <v>1</v>
+      </c>
+      <c r="U78">
+        <v>2</v>
+      </c>
+      <c r="V78" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W78" s="8">
+        <v>1</v>
+      </c>
+      <c r="X78" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z78" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA78">
+        <v>1</v>
+      </c>
+      <c r="AB78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79" t="s">
+        <v>34</v>
+      </c>
+      <c r="H79" t="s">
+        <v>34</v>
+      </c>
+      <c r="I79" t="s">
+        <v>42</v>
+      </c>
+      <c r="J79" t="s">
+        <v>36</v>
+      </c>
+      <c r="K79" t="s">
+        <v>36</v>
+      </c>
+      <c r="L79" t="s">
+        <v>36</v>
+      </c>
+      <c r="M79" t="s">
+        <v>43</v>
+      </c>
+      <c r="N79" t="s">
+        <v>42</v>
+      </c>
+      <c r="O79" t="s">
+        <v>34</v>
+      </c>
+      <c r="P79" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q79" s="9">
+        <v>0</v>
+      </c>
+      <c r="R79" s="9">
+        <v>1</v>
+      </c>
+      <c r="S79" s="9">
+        <v>1</v>
+      </c>
+      <c r="T79" s="9">
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <v>2</v>
+      </c>
+      <c r="V79" s="9">
+        <v>1</v>
+      </c>
+      <c r="W79" s="8">
+        <v>0</v>
+      </c>
+      <c r="X79" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="Y79" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA79">
+        <v>1</v>
+      </c>
+      <c r="AB79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>36</v>
+      </c>
+      <c r="B80" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" t="s">
+        <v>36</v>
+      </c>
+      <c r="F80" t="s">
+        <v>36</v>
+      </c>
+      <c r="G80" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80" t="s">
+        <v>34</v>
+      </c>
+      <c r="I80" t="s">
+        <v>42</v>
+      </c>
+      <c r="J80" t="s">
+        <v>36</v>
+      </c>
+      <c r="K80" t="s">
+        <v>36</v>
+      </c>
+      <c r="L80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M80" t="s">
+        <v>43</v>
+      </c>
+      <c r="N80" t="s">
+        <v>42</v>
+      </c>
+      <c r="O80" t="s">
+        <v>34</v>
+      </c>
+      <c r="P80" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q80" s="9">
+        <v>0</v>
+      </c>
+      <c r="R80" s="9">
+        <v>1</v>
+      </c>
+      <c r="S80" s="9">
+        <v>1</v>
+      </c>
+      <c r="T80" s="9">
+        <v>1</v>
+      </c>
+      <c r="U80">
+        <v>2</v>
+      </c>
+      <c r="V80" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W80" s="8">
+        <v>1</v>
+      </c>
+      <c r="X80" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z80" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA80">
+        <v>1</v>
+      </c>
+      <c r="AB80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" t="s">
+        <v>34</v>
+      </c>
+      <c r="H81" t="s">
+        <v>34</v>
+      </c>
+      <c r="I81" t="s">
+        <v>42</v>
+      </c>
+      <c r="J81" t="s">
+        <v>36</v>
+      </c>
+      <c r="K81" t="s">
+        <v>36</v>
+      </c>
+      <c r="L81" t="s">
+        <v>36</v>
+      </c>
+      <c r="M81" t="s">
+        <v>43</v>
+      </c>
+      <c r="N81" t="s">
+        <v>42</v>
+      </c>
+      <c r="O81" t="s">
+        <v>34</v>
+      </c>
+      <c r="P81" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q81" s="9">
+        <v>1</v>
+      </c>
+      <c r="R81" s="9">
+        <v>0</v>
+      </c>
+      <c r="S81" s="9">
+        <v>0</v>
+      </c>
+      <c r="T81" s="9">
+        <v>1</v>
+      </c>
+      <c r="U81">
+        <v>2</v>
+      </c>
+      <c r="V81" s="10">
+        <v>1</v>
+      </c>
+      <c r="W81" s="8">
+        <v>1</v>
+      </c>
+      <c r="X81" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y81" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z81" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA81">
+        <v>1</v>
+      </c>
+      <c r="AB81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>36</v>
+      </c>
+      <c r="B82" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" t="s">
+        <v>36</v>
+      </c>
+      <c r="F82" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82" t="s">
+        <v>34</v>
+      </c>
+      <c r="I82" t="s">
+        <v>42</v>
+      </c>
+      <c r="J82" t="s">
+        <v>36</v>
+      </c>
+      <c r="K82" t="s">
+        <v>36</v>
+      </c>
+      <c r="L82" t="s">
+        <v>36</v>
+      </c>
+      <c r="M82" t="s">
+        <v>43</v>
+      </c>
+      <c r="N82" t="s">
+        <v>42</v>
+      </c>
+      <c r="O82" t="s">
+        <v>34</v>
+      </c>
+      <c r="P82" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q82" s="9">
+        <v>0</v>
+      </c>
+      <c r="R82" s="9">
+        <v>1</v>
+      </c>
+      <c r="S82" s="9">
+        <v>1</v>
+      </c>
+      <c r="T82" s="9">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>2</v>
+      </c>
+      <c r="V82" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W82" s="8">
+        <v>0</v>
+      </c>
+      <c r="X82" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA82">
+        <v>1</v>
+      </c>
+      <c r="AB82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>36</v>
+      </c>
+      <c r="B83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" t="s">
+        <v>36</v>
+      </c>
+      <c r="F83" t="s">
+        <v>36</v>
+      </c>
+      <c r="G83" t="s">
+        <v>34</v>
+      </c>
+      <c r="H83" t="s">
+        <v>34</v>
+      </c>
+      <c r="I83" t="s">
+        <v>42</v>
+      </c>
+      <c r="J83" t="s">
+        <v>36</v>
+      </c>
+      <c r="K83" t="s">
+        <v>36</v>
+      </c>
+      <c r="L83" t="s">
+        <v>36</v>
+      </c>
+      <c r="M83" t="s">
+        <v>43</v>
+      </c>
+      <c r="N83" t="s">
+        <v>42</v>
+      </c>
+      <c r="O83" t="s">
+        <v>34</v>
+      </c>
+      <c r="P83" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q83" s="9">
+        <v>0</v>
+      </c>
+      <c r="R83" s="9">
+        <v>1</v>
+      </c>
+      <c r="S83" s="9">
+        <v>1</v>
+      </c>
+      <c r="T83" s="9">
+        <v>1</v>
+      </c>
+      <c r="U83">
+        <v>2</v>
+      </c>
+      <c r="V83" s="10">
+        <v>1</v>
+      </c>
+      <c r="W83" s="8">
+        <v>1</v>
+      </c>
+      <c r="X83" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y83" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z83" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA83">
+        <v>1</v>
+      </c>
+      <c r="AB83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H84" t="s">
+        <v>34</v>
+      </c>
+      <c r="I84" t="s">
+        <v>42</v>
+      </c>
+      <c r="J84" t="s">
+        <v>36</v>
+      </c>
+      <c r="K84" t="s">
+        <v>36</v>
+      </c>
+      <c r="L84" t="s">
+        <v>36</v>
+      </c>
+      <c r="M84" t="s">
+        <v>43</v>
+      </c>
+      <c r="N84" t="s">
+        <v>42</v>
+      </c>
+      <c r="O84" t="s">
+        <v>34</v>
+      </c>
+      <c r="P84" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q84" s="9">
+        <v>0</v>
+      </c>
+      <c r="R84" s="9">
+        <v>0</v>
+      </c>
+      <c r="S84" s="9">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>1</v>
+      </c>
+      <c r="U84">
+        <v>2</v>
+      </c>
+      <c r="V84" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W84" s="8">
+        <v>1</v>
+      </c>
+      <c r="X84" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y84" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z84" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA84">
+        <v>1</v>
+      </c>
+      <c r="AB84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" t="s">
+        <v>36</v>
+      </c>
+      <c r="F85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G85" t="s">
+        <v>34</v>
+      </c>
+      <c r="H85" t="s">
+        <v>34</v>
+      </c>
+      <c r="I85" t="s">
+        <v>42</v>
+      </c>
+      <c r="J85" t="s">
+        <v>36</v>
+      </c>
+      <c r="K85" t="s">
+        <v>36</v>
+      </c>
+      <c r="L85" t="s">
+        <v>36</v>
+      </c>
+      <c r="M85" t="s">
+        <v>43</v>
+      </c>
+      <c r="N85" t="s">
+        <v>42</v>
+      </c>
+      <c r="O85" t="s">
+        <v>34</v>
+      </c>
+      <c r="P85" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q85" s="9">
+        <v>1</v>
+      </c>
+      <c r="R85" s="9">
+        <v>1</v>
+      </c>
+      <c r="S85" s="9">
+        <v>1</v>
+      </c>
+      <c r="T85">
+        <v>1</v>
+      </c>
+      <c r="U85">
+        <v>2</v>
+      </c>
+      <c r="V85" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W85" s="8">
+        <v>1</v>
+      </c>
+      <c r="X85" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y85" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA85">
+        <v>1</v>
+      </c>
+      <c r="AB85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" t="s">
+        <v>36</v>
+      </c>
+      <c r="F86" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" t="s">
+        <v>34</v>
+      </c>
+      <c r="H86" t="s">
+        <v>34</v>
+      </c>
+      <c r="I86" t="s">
+        <v>42</v>
+      </c>
+      <c r="J86" t="s">
+        <v>36</v>
+      </c>
+      <c r="K86" t="s">
+        <v>36</v>
+      </c>
+      <c r="L86" t="s">
+        <v>36</v>
+      </c>
+      <c r="M86" t="s">
+        <v>43</v>
+      </c>
+      <c r="N86" t="s">
+        <v>42</v>
+      </c>
+      <c r="O86" t="s">
+        <v>34</v>
+      </c>
+      <c r="P86" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q86" s="9">
+        <v>0</v>
+      </c>
+      <c r="R86" s="9">
+        <v>1</v>
+      </c>
+      <c r="S86" s="9">
+        <v>1</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="U86">
+        <v>2</v>
+      </c>
+      <c r="V86" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W86" s="8">
+        <v>1</v>
+      </c>
+      <c r="X86" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y86" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>1</v>
+      </c>
+      <c r="AB86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" t="s">
+        <v>36</v>
+      </c>
+      <c r="F87" t="s">
+        <v>36</v>
+      </c>
+      <c r="G87" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" t="s">
+        <v>34</v>
+      </c>
+      <c r="I87" t="s">
+        <v>42</v>
+      </c>
+      <c r="J87" t="s">
+        <v>36</v>
+      </c>
+      <c r="K87" t="s">
+        <v>36</v>
+      </c>
+      <c r="L87" t="s">
+        <v>36</v>
+      </c>
+      <c r="M87" t="s">
+        <v>43</v>
+      </c>
+      <c r="N87" t="s">
+        <v>42</v>
+      </c>
+      <c r="O87" t="s">
+        <v>34</v>
+      </c>
+      <c r="P87" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q87" s="9">
+        <v>1</v>
+      </c>
+      <c r="R87" s="9">
+        <v>0</v>
+      </c>
+      <c r="S87" s="9">
+        <v>0</v>
+      </c>
+      <c r="T87" s="9">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>2</v>
+      </c>
+      <c r="V87" s="9">
+        <v>1</v>
+      </c>
+      <c r="W87" s="8">
+        <v>1</v>
+      </c>
+      <c r="X87" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y87" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA87">
+        <v>1</v>
+      </c>
+      <c r="AB87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" t="s">
+        <v>36</v>
+      </c>
+      <c r="E88" t="s">
+        <v>36</v>
+      </c>
+      <c r="F88" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" t="s">
+        <v>34</v>
+      </c>
+      <c r="H88" t="s">
+        <v>34</v>
+      </c>
+      <c r="I88" t="s">
+        <v>42</v>
+      </c>
+      <c r="J88" t="s">
+        <v>36</v>
+      </c>
+      <c r="K88" t="s">
+        <v>36</v>
+      </c>
+      <c r="L88" t="s">
+        <v>36</v>
+      </c>
+      <c r="M88" t="s">
+        <v>43</v>
+      </c>
+      <c r="N88" t="s">
+        <v>42</v>
+      </c>
+      <c r="O88" t="s">
+        <v>34</v>
+      </c>
+      <c r="P88" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q88" s="9">
+        <v>0</v>
+      </c>
+      <c r="R88" s="9">
+        <v>1</v>
+      </c>
+      <c r="S88" s="9">
+        <v>1</v>
+      </c>
+      <c r="T88" s="9">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>2</v>
+      </c>
+      <c r="V88" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W88" s="8">
+        <v>1</v>
+      </c>
+      <c r="X88" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y88" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA88">
+        <v>1</v>
+      </c>
+      <c r="AB88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" t="s">
+        <v>36</v>
+      </c>
+      <c r="F89" t="s">
+        <v>36</v>
+      </c>
+      <c r="G89" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89" t="s">
+        <v>34</v>
+      </c>
+      <c r="I89" t="s">
+        <v>42</v>
+      </c>
+      <c r="J89" t="s">
+        <v>36</v>
+      </c>
+      <c r="K89" t="s">
+        <v>36</v>
+      </c>
+      <c r="L89" t="s">
+        <v>36</v>
+      </c>
+      <c r="M89" t="s">
+        <v>43</v>
+      </c>
+      <c r="N89" t="s">
+        <v>42</v>
+      </c>
+      <c r="O89" t="s">
+        <v>34</v>
+      </c>
+      <c r="P89" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q89" s="9">
+        <v>0</v>
+      </c>
+      <c r="R89" s="9">
+        <v>0</v>
+      </c>
+      <c r="S89" s="9">
+        <v>0</v>
+      </c>
+      <c r="T89" s="9">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>2</v>
+      </c>
+      <c r="V89" s="10">
+        <v>1</v>
+      </c>
+      <c r="W89" s="8">
+        <v>0</v>
+      </c>
+      <c r="X89" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y89" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA89">
+        <v>1</v>
+      </c>
+      <c r="AB89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" t="s">
+        <v>36</v>
+      </c>
+      <c r="F90" t="s">
+        <v>36</v>
+      </c>
+      <c r="G90" t="s">
+        <v>34</v>
+      </c>
+      <c r="H90" t="s">
+        <v>34</v>
+      </c>
+      <c r="I90" t="s">
+        <v>42</v>
+      </c>
+      <c r="J90" t="s">
+        <v>36</v>
+      </c>
+      <c r="K90" t="s">
+        <v>36</v>
+      </c>
+      <c r="L90" t="s">
+        <v>36</v>
+      </c>
+      <c r="M90" t="s">
+        <v>43</v>
+      </c>
+      <c r="N90" t="s">
+        <v>42</v>
+      </c>
+      <c r="O90" t="s">
+        <v>34</v>
+      </c>
+      <c r="P90" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q90" s="9">
+        <v>1</v>
+      </c>
+      <c r="R90" s="9">
+        <v>1</v>
+      </c>
+      <c r="S90" s="9">
+        <v>1</v>
+      </c>
+      <c r="T90" s="9">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>2</v>
+      </c>
+      <c r="V90" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W90" s="8">
+        <v>1</v>
+      </c>
+      <c r="X90" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y90" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z90" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA90">
+        <v>1</v>
+      </c>
+      <c r="AB90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" t="s">
+        <v>36</v>
+      </c>
+      <c r="F91" t="s">
+        <v>36</v>
+      </c>
+      <c r="G91" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" t="s">
+        <v>34</v>
+      </c>
+      <c r="I91" t="s">
+        <v>42</v>
+      </c>
+      <c r="J91" t="s">
+        <v>36</v>
+      </c>
+      <c r="K91" t="s">
+        <v>36</v>
+      </c>
+      <c r="L91" t="s">
+        <v>36</v>
+      </c>
+      <c r="M91" t="s">
+        <v>43</v>
+      </c>
+      <c r="N91" t="s">
+        <v>42</v>
+      </c>
+      <c r="O91" t="s">
+        <v>34</v>
+      </c>
+      <c r="P91" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q91" s="9">
+        <v>1</v>
+      </c>
+      <c r="R91" s="9">
+        <v>0</v>
+      </c>
+      <c r="S91" s="9">
+        <v>0</v>
+      </c>
+      <c r="T91" s="9">
+        <v>1</v>
+      </c>
+      <c r="U91">
+        <v>2</v>
+      </c>
+      <c r="V91" s="10">
+        <v>1</v>
+      </c>
+      <c r="W91" s="8">
+        <v>1</v>
+      </c>
+      <c r="X91" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y91" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA91">
+        <v>1</v>
+      </c>
+      <c r="AB91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" t="s">
+        <v>36</v>
+      </c>
+      <c r="F92" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92" t="s">
+        <v>34</v>
+      </c>
+      <c r="H92" t="s">
+        <v>34</v>
+      </c>
+      <c r="I92" t="s">
+        <v>42</v>
+      </c>
+      <c r="J92" t="s">
+        <v>36</v>
+      </c>
+      <c r="K92" t="s">
+        <v>36</v>
+      </c>
+      <c r="L92" t="s">
+        <v>36</v>
+      </c>
+      <c r="M92" t="s">
+        <v>43</v>
+      </c>
+      <c r="N92" t="s">
+        <v>42</v>
+      </c>
+      <c r="O92" t="s">
+        <v>34</v>
+      </c>
+      <c r="P92" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q92" s="9">
+        <v>0</v>
+      </c>
+      <c r="R92" s="9">
+        <v>1</v>
+      </c>
+      <c r="S92" s="9">
+        <v>1</v>
+      </c>
+      <c r="T92" s="9">
+        <v>1</v>
+      </c>
+      <c r="U92">
+        <v>2</v>
+      </c>
+      <c r="V92" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W92" s="8">
+        <v>0</v>
+      </c>
+      <c r="X92" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y92" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>1</v>
+      </c>
+      <c r="AB92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" t="s">
+        <v>36</v>
+      </c>
+      <c r="F93" t="s">
+        <v>36</v>
+      </c>
+      <c r="G93" t="s">
+        <v>34</v>
+      </c>
+      <c r="H93" t="s">
+        <v>34</v>
+      </c>
+      <c r="I93" t="s">
+        <v>42</v>
+      </c>
+      <c r="J93" t="s">
+        <v>36</v>
+      </c>
+      <c r="K93" t="s">
+        <v>36</v>
+      </c>
+      <c r="L93" t="s">
+        <v>36</v>
+      </c>
+      <c r="M93" t="s">
+        <v>43</v>
+      </c>
+      <c r="N93" t="s">
+        <v>42</v>
+      </c>
+      <c r="O93" t="s">
+        <v>34</v>
+      </c>
+      <c r="P93" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q93" s="9">
+        <v>0</v>
+      </c>
+      <c r="R93" s="9">
+        <v>0</v>
+      </c>
+      <c r="S93" s="9">
+        <v>0</v>
+      </c>
+      <c r="T93" s="9">
+        <v>1</v>
+      </c>
+      <c r="U93">
+        <v>2</v>
+      </c>
+      <c r="V93" s="9">
+        <v>1</v>
+      </c>
+      <c r="W93" s="8">
+        <v>0</v>
+      </c>
+      <c r="X93" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y93" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z93" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>1</v>
+      </c>
+      <c r="AB93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" t="s">
+        <v>36</v>
+      </c>
+      <c r="F94" t="s">
+        <v>36</v>
+      </c>
+      <c r="G94" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" t="s">
+        <v>34</v>
+      </c>
+      <c r="I94" t="s">
+        <v>42</v>
+      </c>
+      <c r="J94" t="s">
+        <v>36</v>
+      </c>
+      <c r="K94" t="s">
+        <v>36</v>
+      </c>
+      <c r="L94" t="s">
+        <v>36</v>
+      </c>
+      <c r="M94" t="s">
+        <v>43</v>
+      </c>
+      <c r="N94" t="s">
+        <v>42</v>
+      </c>
+      <c r="O94" t="s">
+        <v>34</v>
+      </c>
+      <c r="P94" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q94" s="9">
+        <v>1</v>
+      </c>
+      <c r="R94" s="9">
+        <v>0</v>
+      </c>
+      <c r="S94" s="9">
+        <v>0</v>
+      </c>
+      <c r="T94" s="9">
+        <v>1</v>
+      </c>
+      <c r="U94">
+        <v>2</v>
+      </c>
+      <c r="V94" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W94" s="8">
+        <v>0</v>
+      </c>
+      <c r="X94" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y94" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>1</v>
+      </c>
+      <c r="AB94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" t="s">
+        <v>36</v>
+      </c>
+      <c r="F95" t="s">
+        <v>36</v>
+      </c>
+      <c r="G95" t="s">
+        <v>34</v>
+      </c>
+      <c r="H95" t="s">
+        <v>34</v>
+      </c>
+      <c r="I95" t="s">
+        <v>42</v>
+      </c>
+      <c r="J95" t="s">
+        <v>36</v>
+      </c>
+      <c r="K95" t="s">
+        <v>36</v>
+      </c>
+      <c r="L95" t="s">
+        <v>36</v>
+      </c>
+      <c r="M95" t="s">
+        <v>43</v>
+      </c>
+      <c r="N95" t="s">
+        <v>42</v>
+      </c>
+      <c r="O95" t="s">
+        <v>34</v>
+      </c>
+      <c r="P95" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q95" s="9">
+        <v>0</v>
+      </c>
+      <c r="R95" s="9">
+        <v>1</v>
+      </c>
+      <c r="S95" s="9">
+        <v>0</v>
+      </c>
+      <c r="T95" s="9">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95" s="9">
+        <v>1</v>
+      </c>
+      <c r="W95" s="8">
+        <v>0</v>
+      </c>
+      <c r="X95" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y95" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z95" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>1</v>
+      </c>
+      <c r="AB95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96" t="s">
+        <v>36</v>
+      </c>
+      <c r="F96" t="s">
+        <v>36</v>
+      </c>
+      <c r="G96" t="s">
+        <v>34</v>
+      </c>
+      <c r="H96" t="s">
+        <v>34</v>
+      </c>
+      <c r="I96" t="s">
+        <v>42</v>
+      </c>
+      <c r="J96" t="s">
+        <v>36</v>
+      </c>
+      <c r="K96" t="s">
+        <v>36</v>
+      </c>
+      <c r="L96" t="s">
+        <v>36</v>
+      </c>
+      <c r="M96" t="s">
+        <v>43</v>
+      </c>
+      <c r="N96" t="s">
+        <v>42</v>
+      </c>
+      <c r="O96" t="s">
+        <v>34</v>
+      </c>
+      <c r="P96" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q96" s="9">
+        <v>1</v>
+      </c>
+      <c r="R96" s="9">
+        <v>1</v>
+      </c>
+      <c r="S96" s="9">
+        <v>0</v>
+      </c>
+      <c r="T96" s="9">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>2</v>
+      </c>
+      <c r="V96" s="8">
+        <v>1</v>
+      </c>
+      <c r="W96" s="8">
+        <v>0</v>
+      </c>
+      <c r="X96" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y96" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>1</v>
+      </c>
+      <c r="AB96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>36</v>
+      </c>
+      <c r="B97" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" t="s">
+        <v>36</v>
+      </c>
+      <c r="G97" t="s">
+        <v>34</v>
+      </c>
+      <c r="H97" t="s">
+        <v>34</v>
+      </c>
+      <c r="I97" t="s">
+        <v>42</v>
+      </c>
+      <c r="J97" t="s">
+        <v>36</v>
+      </c>
+      <c r="K97" t="s">
+        <v>36</v>
+      </c>
+      <c r="L97" t="s">
+        <v>36</v>
+      </c>
+      <c r="M97" t="s">
+        <v>43</v>
+      </c>
+      <c r="N97" t="s">
+        <v>42</v>
+      </c>
+      <c r="O97" t="s">
+        <v>34</v>
+      </c>
+      <c r="P97" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q97" s="9">
+        <v>0</v>
+      </c>
+      <c r="R97" s="9">
+        <v>0</v>
+      </c>
+      <c r="S97" s="9">
+        <v>0</v>
+      </c>
+      <c r="T97" s="9">
+        <v>1</v>
+      </c>
+      <c r="U97">
+        <v>2</v>
+      </c>
+      <c r="V97" s="8">
+        <v>1</v>
+      </c>
+      <c r="W97" s="8">
+        <v>0</v>
+      </c>
+      <c r="X97" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y97" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z97" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA97">
+        <v>1</v>
+      </c>
+      <c r="AB97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" t="s">
+        <v>36</v>
+      </c>
+      <c r="F98" t="s">
+        <v>36</v>
+      </c>
+      <c r="G98" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98" t="s">
+        <v>34</v>
+      </c>
+      <c r="I98" t="s">
+        <v>42</v>
+      </c>
+      <c r="J98" t="s">
+        <v>36</v>
+      </c>
+      <c r="K98" t="s">
+        <v>36</v>
+      </c>
+      <c r="L98" t="s">
+        <v>36</v>
+      </c>
+      <c r="M98" t="s">
+        <v>43</v>
+      </c>
+      <c r="N98" t="s">
+        <v>42</v>
+      </c>
+      <c r="O98" t="s">
+        <v>34</v>
+      </c>
+      <c r="P98" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q98" s="9">
+        <v>0</v>
+      </c>
+      <c r="R98" s="9">
+        <v>1</v>
+      </c>
+      <c r="S98" s="9">
+        <v>0</v>
+      </c>
+      <c r="T98" s="9">
+        <v>1</v>
+      </c>
+      <c r="U98">
+        <v>2</v>
+      </c>
+      <c r="V98" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="W98" s="8">
+        <v>0</v>
+      </c>
+      <c r="X98" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="Y98" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>1</v>
+      </c>
+      <c r="AB98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" t="s">
+        <v>36</v>
+      </c>
+      <c r="E99" t="s">
+        <v>36</v>
+      </c>
+      <c r="F99" t="s">
+        <v>36</v>
+      </c>
+      <c r="G99" t="s">
+        <v>34</v>
+      </c>
+      <c r="H99" t="s">
+        <v>34</v>
+      </c>
+      <c r="I99" t="s">
+        <v>42</v>
+      </c>
+      <c r="J99" t="s">
+        <v>36</v>
+      </c>
+      <c r="K99" t="s">
+        <v>36</v>
+      </c>
+      <c r="L99" t="s">
+        <v>36</v>
+      </c>
+      <c r="M99" t="s">
+        <v>43</v>
+      </c>
+      <c r="N99" t="s">
+        <v>42</v>
+      </c>
+      <c r="O99" t="s">
+        <v>34</v>
+      </c>
+      <c r="P99" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q99" s="9">
+        <v>0</v>
+      </c>
+      <c r="R99" s="9">
+        <v>1</v>
+      </c>
+      <c r="S99" s="9">
+        <v>1</v>
+      </c>
+      <c r="T99" s="9">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>2</v>
+      </c>
+      <c r="V99" s="8">
+        <v>0</v>
+      </c>
+      <c r="W99" s="8">
+        <v>0</v>
+      </c>
+      <c r="X99" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>1</v>
+      </c>
+      <c r="AB99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>36</v>
+      </c>
+      <c r="B100" t="s">
+        <v>34</v>
+      </c>
+      <c r="C100" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E100" t="s">
+        <v>36</v>
+      </c>
+      <c r="F100" t="s">
+        <v>36</v>
+      </c>
+      <c r="G100" t="s">
+        <v>34</v>
+      </c>
+      <c r="H100" t="s">
+        <v>34</v>
+      </c>
+      <c r="I100" t="s">
+        <v>42</v>
+      </c>
+      <c r="J100" t="s">
+        <v>36</v>
+      </c>
+      <c r="K100" t="s">
+        <v>36</v>
+      </c>
+      <c r="L100" t="s">
+        <v>36</v>
+      </c>
+      <c r="M100" t="s">
+        <v>43</v>
+      </c>
+      <c r="N100" t="s">
+        <v>42</v>
+      </c>
+      <c r="O100" t="s">
+        <v>34</v>
+      </c>
+      <c r="P100" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q100" s="9">
+        <v>0</v>
+      </c>
+      <c r="R100" s="9">
+        <v>1</v>
+      </c>
+      <c r="S100" s="9">
+        <v>1</v>
+      </c>
+      <c r="T100" s="9">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>2</v>
+      </c>
+      <c r="V100" s="8">
+        <v>1</v>
+      </c>
+      <c r="W100" s="8">
+        <v>1</v>
+      </c>
+      <c r="X100" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y100" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z100" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>1</v>
+      </c>
+      <c r="AB100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" t="s">
+        <v>36</v>
+      </c>
+      <c r="F101" t="s">
+        <v>36</v>
+      </c>
+      <c r="G101" t="s">
+        <v>34</v>
+      </c>
+      <c r="H101" t="s">
+        <v>34</v>
+      </c>
+      <c r="I101" t="s">
+        <v>42</v>
+      </c>
+      <c r="J101" t="s">
+        <v>36</v>
+      </c>
+      <c r="K101" t="s">
+        <v>36</v>
+      </c>
+      <c r="L101" t="s">
+        <v>36</v>
+      </c>
+      <c r="M101" t="s">
+        <v>43</v>
+      </c>
+      <c r="N101" t="s">
+        <v>42</v>
+      </c>
+      <c r="O101" t="s">
+        <v>34</v>
+      </c>
+      <c r="P101" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q101" s="9">
+        <v>1</v>
+      </c>
+      <c r="R101" s="9">
+        <v>1</v>
+      </c>
+      <c r="S101" s="9">
+        <v>1</v>
+      </c>
+      <c r="T101" s="9">
+        <v>1</v>
+      </c>
+      <c r="U101">
+        <v>2</v>
+      </c>
+      <c r="V101" s="8">
+        <v>1</v>
+      </c>
+      <c r="W101" s="8">
+        <v>0</v>
+      </c>
+      <c r="X101" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z101" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA101">
+        <v>1</v>
+      </c>
+      <c r="AB101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102" t="s">
+        <v>34</v>
+      </c>
+      <c r="C102" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102" t="s">
+        <v>36</v>
+      </c>
+      <c r="F102" t="s">
+        <v>36</v>
+      </c>
+      <c r="G102" t="s">
+        <v>34</v>
+      </c>
+      <c r="H102" t="s">
+        <v>34</v>
+      </c>
+      <c r="I102" t="s">
+        <v>42</v>
+      </c>
+      <c r="J102" t="s">
+        <v>36</v>
+      </c>
+      <c r="K102" t="s">
+        <v>36</v>
+      </c>
+      <c r="L102" t="s">
+        <v>36</v>
+      </c>
+      <c r="M102" t="s">
+        <v>43</v>
+      </c>
+      <c r="N102" t="s">
+        <v>42</v>
+      </c>
+      <c r="O102" t="s">
+        <v>34</v>
+      </c>
+      <c r="P102" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q102" s="9">
+        <v>1</v>
+      </c>
+      <c r="R102" s="9">
+        <v>1</v>
+      </c>
+      <c r="S102" s="9">
+        <v>1</v>
+      </c>
+      <c r="T102" s="9">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>2</v>
+      </c>
+      <c r="V102" s="8">
+        <v>0</v>
+      </c>
+      <c r="W102" s="8">
+        <v>1</v>
+      </c>
+      <c r="X102" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>1</v>
+      </c>
+      <c r="AB102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>36</v>
+      </c>
+      <c r="B103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" t="s">
+        <v>36</v>
+      </c>
+      <c r="E103" t="s">
+        <v>36</v>
+      </c>
+      <c r="F103" t="s">
+        <v>36</v>
+      </c>
+      <c r="G103" t="s">
+        <v>34</v>
+      </c>
+      <c r="H103" t="s">
+        <v>34</v>
+      </c>
+      <c r="I103" t="s">
+        <v>42</v>
+      </c>
+      <c r="J103" t="s">
+        <v>36</v>
+      </c>
+      <c r="K103" t="s">
+        <v>36</v>
+      </c>
+      <c r="L103" t="s">
+        <v>36</v>
+      </c>
+      <c r="M103" t="s">
+        <v>43</v>
+      </c>
+      <c r="N103" t="s">
+        <v>42</v>
+      </c>
+      <c r="O103" t="s">
+        <v>34</v>
+      </c>
+      <c r="P103" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q103" s="9">
+        <v>1</v>
+      </c>
+      <c r="R103" s="9">
+        <v>1</v>
+      </c>
+      <c r="S103" s="9">
+        <v>1</v>
+      </c>
+      <c r="T103" s="9">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>2</v>
+      </c>
+      <c r="V103" s="8">
+        <v>0</v>
+      </c>
+      <c r="W103" s="8">
+        <v>0</v>
+      </c>
+      <c r="X103" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y103" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z103" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>1</v>
+      </c>
+      <c r="AB103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T104" s="9"/>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T105" s="9"/>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T106" s="9"/>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T107" s="9"/>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T108" s="9"/>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T109" s="9"/>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T110" s="9"/>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T111" s="9"/>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T112" s="9"/>
+    </row>
+    <row r="113" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T113" s="9"/>
+    </row>
+    <row r="114" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T114" s="9"/>
+    </row>
+    <row r="115" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T115" s="9"/>
+    </row>
+    <row r="116" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T116" s="9"/>
+    </row>
+    <row r="117" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T117" s="9"/>
+    </row>
+    <row r="118" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T118" s="9"/>
+    </row>
+    <row r="119" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T119" s="9"/>
+    </row>
+    <row r="120" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T120" s="9"/>
+    </row>
+    <row r="121" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T121" s="9"/>
+    </row>
+    <row r="122" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T122" s="9"/>
+    </row>
+    <row r="123" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T123" s="9"/>
+    </row>
+    <row r="124" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T124" s="9"/>
+    </row>
+    <row r="125" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T125" s="9"/>
+    </row>
+    <row r="126" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T126" s="9"/>
+    </row>
+    <row r="127" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T127" s="9"/>
+    </row>
+    <row r="128" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T128" s="9"/>
+    </row>
+    <row r="129" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T129" s="9"/>
+    </row>
+    <row r="130" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T130" s="9"/>
+    </row>
+    <row r="131" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T131" s="9"/>
+    </row>
+    <row r="132" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T132" s="9"/>
+    </row>
+    <row r="133" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T133" s="9"/>
+    </row>
+    <row r="134" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T134" s="9"/>
+    </row>
+    <row r="135" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T135" s="9"/>
+    </row>
+    <row r="136" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T136" s="9"/>
+    </row>
+    <row r="137" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T137" s="9"/>
+    </row>
+    <row r="138" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T138" s="9"/>
+    </row>
+    <row r="139" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T139" s="9"/>
+    </row>
+    <row r="140" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T140" s="9"/>
+    </row>
+    <row r="141" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T141" s="9"/>
+    </row>
+    <row r="142" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T142" s="9"/>
+    </row>
+    <row r="143" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T143" s="9"/>
+    </row>
+    <row r="144" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T144" s="9"/>
+    </row>
+    <row r="145" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T145" s="9"/>
+    </row>
+    <row r="146" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T146" s="9"/>
+    </row>
+    <row r="147" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T147" s="9"/>
+    </row>
+    <row r="148" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T148" s="9"/>
+    </row>
+    <row r="149" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T149" s="9"/>
+    </row>
+    <row r="150" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T150" s="9"/>
+    </row>
+    <row r="151" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T151" s="9"/>
+    </row>
+    <row r="152" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T152" s="9"/>
+    </row>
+    <row r="153" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T153" s="9"/>
+    </row>
+    <row r="154" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T154" s="9"/>
+    </row>
+    <row r="155" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T155" s="9"/>
+    </row>
+    <row r="156" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T156" s="9"/>
+    </row>
+    <row r="157" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T157" s="9"/>
+    </row>
+    <row r="158" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T158" s="9"/>
+    </row>
+    <row r="159" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T159" s="9"/>
+    </row>
+    <row r="160" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T160" s="9"/>
+    </row>
+    <row r="161" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T161" s="9"/>
+    </row>
+    <row r="162" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T162" s="9"/>
+    </row>
+    <row r="163" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T163" s="9"/>
+    </row>
+    <row r="164" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T164" s="9"/>
+    </row>
+    <row r="165" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T165" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1005,40 +9728,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
       <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
         <v>35</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1095,10 +9818,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -3801,7 +12524,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>21</v>
@@ -3809,7 +12532,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -3840,16 +12563,16 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
